--- a/train/test_features.xlsx
+++ b/train/test_features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T250"/>
+  <dimension ref="A1:Z250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,36 @@
           <t>Orthogonal Ratio</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Haralick Contrast</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Haralick Dissimilarity</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Haralick Homogeneity</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Haralick Energy</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Haralick Correlation</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Haralick ASM</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -598,6 +628,24 @@
       <c r="T2" t="n">
         <v>0.8355886904891203</v>
       </c>
+      <c r="U2" t="n">
+        <v>5.088856892815492</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.02315669278213036</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.9993842611561314</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.9924401423355281</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.9945198256882646</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.9849374361189633</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -662,6 +710,24 @@
       <c r="T3" t="n">
         <v>0.7993205968713839</v>
       </c>
+      <c r="U3" t="n">
+        <v>5.897057092848803</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.02533780630105013</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.9995200626126854</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.9842031204748238</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.9970371037385439</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.9686557823523806</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -726,6 +792,24 @@
       <c r="T4" t="n">
         <v>0.9598524141902736</v>
       </c>
+      <c r="U4" t="n">
+        <v>6.88837931321887</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.02701325220870145</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.99989406730672</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.9749302653268511</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.9978557999148303</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.9504890222502843</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -790,6 +874,24 @@
       <c r="T5" t="n">
         <v>0.7543906155817381</v>
       </c>
+      <c r="U5" t="n">
+        <v>9.191731955325887</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.03604600766794466</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.9998586452810365</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.9745481014883454</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.9971793305578257</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.9497440021145382</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -854,6 +956,24 @@
       <c r="T6" t="n">
         <v>0.7364198557790879</v>
       </c>
+      <c r="U6" t="n">
+        <v>7.9777296216036</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.03128521420236706</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.9998773147722204</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.9736434005068673</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.9976358976884151</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.947981471350576</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -918,6 +1038,24 @@
       <c r="T7" t="n">
         <v>0.8579038102846333</v>
       </c>
+      <c r="U7" t="n">
+        <v>6.286797799633272</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.0246541090181697</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.9999033187063693</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.9721303588422519</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.9982378345276695</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.9450374345827655</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -982,6 +1120,24 @@
       <c r="T8" t="n">
         <v>0.8190159795172345</v>
       </c>
+      <c r="U8" t="n">
+        <v>7.67422903817303</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.03009501583597266</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.9998819821450163</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.9753268642392662</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.997572585799495</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.9512624921067999</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1046,6 +1202,24 @@
       <c r="T9" t="n">
         <v>0.6691808244643215</v>
       </c>
+      <c r="U9" t="n">
+        <v>5.912841723620604</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.02318761460243374</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.9999090695764216</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.9765266442766501</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.9980362329032892</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.9536042869822152</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1110,6 +1284,24 @@
       <c r="T10" t="n">
         <v>0.9890238293208667</v>
       </c>
+      <c r="U10" t="n">
+        <v>6.541521503583929</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.0256530255042507</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.999899401447058</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.9688975986559825</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.9983545096856918</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.9387625566813294</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1174,6 +1366,24 @@
       <c r="T11" t="n">
         <v>0.8964401294498382</v>
       </c>
+      <c r="U11" t="n">
+        <v>6.937156192698784</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.02720453408901484</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.9998933171932352</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.9785422410995188</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.9974807920976074</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.9575449176160689</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1238,6 +1448,24 @@
       <c r="T12" t="n">
         <v>0.7135785618796932</v>
       </c>
+      <c r="U12" t="n">
+        <v>3.9888648108018</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.01564260710118353</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0.99993865738611</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0.9847788032369441</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0.9979653452295798</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.969789291304788</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1302,6 +1530,24 @@
       <c r="T13" t="n">
         <v>0.9489804286761476</v>
       </c>
+      <c r="U13" t="n">
+        <v>11.48966494415736</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0.04505750958493083</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0.9998233066012956</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0.9678046440514328</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0.9972031799441848</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.9366458290475207</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1366,6 +1612,24 @@
       <c r="T14" t="n">
         <v>0.9301190801726968</v>
       </c>
+      <c r="U14" t="n">
+        <v>4.85639564927489</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.02131196866144361</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0.999527327971131</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.9863223030598167</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.9971836591323511</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.972831685513221</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1430,6 +1694,24 @@
       <c r="T15" t="n">
         <v>0.9444586207461122</v>
       </c>
+      <c r="U15" t="n">
+        <v>6.015815135855976</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.02359143190531755</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.9999074860035085</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0.9785005883477815</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.9978202992351228</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.9574634013969545</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1494,6 +1776,24 @@
       <c r="T16" t="n">
         <v>0.7968367046524801</v>
       </c>
+      <c r="U16" t="n">
+        <v>6.411449824970829</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.02514294049008168</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.9999014017496851</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.9784981317878123</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0.997676879721464</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.957458593912239</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1558,6 +1858,24 @@
       <c r="T17" t="n">
         <v>0.9198465952997077</v>
       </c>
+      <c r="U17" t="n">
+        <v>7.484541173528921</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0.02935114185697616</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0.9998848992530137</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0.956602619707369</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0.9986426003899447</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.9150885720310014</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1622,6 +1940,24 @@
       <c r="T18" t="n">
         <v>0.6810618777660431</v>
       </c>
+      <c r="U18" t="n">
+        <v>7.457442907151192</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.02924487414569095</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.9998853159827277</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.9715658422382091</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.9979500314459934</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.9439401858040405</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1686,6 +2022,24 @@
       <c r="T19" t="n">
         <v>0.678298576004396</v>
       </c>
+      <c r="U19" t="n">
+        <v>6.286797799633272</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0.0246541090181697</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.9999033187063693</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.9815913260554562</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.9973425505809808</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.9635215313873089</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1750,6 +2104,24 @@
       <c r="T20" t="n">
         <v>0.6803630632069665</v>
       </c>
+      <c r="U20" t="n">
+        <v>3.598649774962494</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.01411235205867645</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.9999446582939906</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.9854986979075231</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0.9980741691364764</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.9712076835774234</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1814,6 +2186,24 @@
       <c r="T21" t="n">
         <v>0.6095042273798988</v>
       </c>
+      <c r="U21" t="n">
+        <v>7.370728454742457</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0.02890481746957826</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.9998866495178123</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.9713818986841819</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0.9979867772794413</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.9435827930912862</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1878,6 +2268,24 @@
       <c r="T22" t="n">
         <v>0.7992332672806171</v>
       </c>
+      <c r="U22" t="n">
+        <v>7.587514585764294</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.02975495915985998</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.9998833156801009</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0.9651493769672105</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0.9982933142999648</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.9315133198601946</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1942,6 +2350,24 @@
       <c r="T23" t="n">
         <v>0.8876174991636221</v>
       </c>
+      <c r="U23" t="n">
+        <v>8.828615185864312</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.03462202033672278</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.9998642294592031</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0.9633872110704095</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.9981076808134177</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.9281149184540216</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2006,6 +2432,24 @@
       <c r="T24" t="n">
         <v>0.8055590851913615</v>
       </c>
+      <c r="U24" t="n">
+        <v>5.939939989998333</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.02329388231371896</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.9999086528467075</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.9845514260584916</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0.9970115447339322</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.9693415105538093</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2070,6 +2514,24 @@
       <c r="T25" t="n">
         <v>0.8900995185391424</v>
       </c>
+      <c r="U25" t="n">
+        <v>6.010143690615108</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.0257779629938323</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.9995266179829705</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0.9819879093208461</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0.9973567562096581</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.9643002540523262</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2134,6 +2596,24 @@
       <c r="T26" t="n">
         <v>0.8920037623857388</v>
       </c>
+      <c r="U26" t="n">
+        <v>14.75229621603601</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.05785214202367062</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.9997731323437389</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.9718944309669139</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.9958895981444218</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.9445787849445013</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2198,6 +2678,24 @@
       <c r="T27" t="n">
         <v>0.7945892684728506</v>
       </c>
+      <c r="U27" t="n">
+        <v>8.671445240873478</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.03400566761126854</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.9998666464915437</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.9816935465075129</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.9963104823784182</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.9637222192544985</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2262,6 +2760,24 @@
       <c r="T28" t="n">
         <v>0.5743816312309943</v>
       </c>
+      <c r="U28" t="n">
+        <v>12.64947074512419</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.049605767627938</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.9998054705695396</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.973123151605561</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.9963182424938998</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.9469686681907395</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2326,6 +2842,24 @@
       <c r="T29" t="n">
         <v>0.6339194275415118</v>
       </c>
+      <c r="U29" t="n">
+        <v>10.29192157026171</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.04036047674612435</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.999841726054651</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.9701076438340763</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.9973051499634468</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.9411088406253031</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2390,6 +2924,24 @@
       <c r="T30" t="n">
         <v>0.889703735099161</v>
       </c>
+      <c r="U30" t="n">
+        <v>9.397678779796632</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.03685364227371228</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.9998554781352107</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.9678147799658077</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.9977128663321954</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.9366654483202647</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2454,6 +3006,24 @@
       <c r="T31" t="n">
         <v>0.6886305479596794</v>
       </c>
+      <c r="U31" t="n">
+        <v>13.77133897316219</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.05400525087514586</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.9997882179593829</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.9617876794688451</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.9971668549334372</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.9250355403780659</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2518,6 +3088,24 @@
       <c r="T32" t="n">
         <v>0.5646007947405126</v>
       </c>
+      <c r="U32" t="n">
+        <v>13.65210660110018</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.05353767294549091</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.9997900515701242</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.9599058100835318</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.9973210517795128</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.9214191642321216</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2582,6 +3170,24 @@
       <c r="T33" t="n">
         <v>0.8241600053958096</v>
       </c>
+      <c r="U33" t="n">
+        <v>8.779838306384399</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.03443073845640941</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.9998649795726882</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.9682892928501911</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.9978320378881952</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.937584154648323</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2646,6 +3252,24 @@
       <c r="T34" t="n">
         <v>0.8461278722285002</v>
       </c>
+      <c r="U34" t="n">
+        <v>11.92323720620103</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.04675779296549425</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.9998166389258727</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.9584392190001698</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.997742127977933</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.9186057365176555</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2710,6 +3334,24 @@
       <c r="T35" t="n">
         <v>0.8899860924917873</v>
       </c>
+      <c r="U35" t="n">
+        <v>10.62794007334556</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.04167819636606101</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.9998365586061984</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.9701121243515503</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.997216509631514</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.9411175338138777</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2774,6 +3416,24 @@
       <c r="T36" t="n">
         <v>0.4722910868456565</v>
       </c>
+      <c r="U36" t="n">
+        <v>5.224942157026172</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.02411326887814634</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.9992603502037366</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.983604910520239</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.9974476547878576</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.9674786199995273</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2838,6 +3498,24 @@
       <c r="T37" t="n">
         <v>0.883578182954165</v>
       </c>
+      <c r="U37" t="n">
+        <v>8.552212868811472</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.03353808968161361</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.9998684801022852</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.9799586233265695</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.9966745062628969</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.9603189034321052</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2902,6 +3580,24 @@
       <c r="T38" t="n">
         <v>0.896326365911809</v>
       </c>
+      <c r="U38" t="n">
+        <v>11.41378979829972</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.04475995999333222</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.9998244734444945</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.9674270837489337</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.9972534647186919</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.9359151623709665</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2966,6 +3662,24 @@
       <c r="T39" t="n">
         <v>0.9430742709467377</v>
       </c>
+      <c r="U39" t="n">
+        <v>9.820411735289214</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.03851141856976163</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.9998489771516732</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.9695746152808364</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.9974733996121558</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.940074934596982</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3030,6 +3744,24 @@
       <c r="T40" t="n">
         <v>0.8288804590287229</v>
       </c>
+      <c r="U40" t="n">
+        <v>12.68198866477746</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.04973328888148025</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.9998049704938828</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.9617790830501539</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.9973921254918355</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.9250190045927948</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3094,6 +3826,24 @@
       <c r="T41" t="n">
         <v>0.6955950799618094</v>
       </c>
+      <c r="U41" t="n">
+        <v>11.40837014502417</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.04473870645107518</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.9998245567904374</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.9619033088014164</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.9976471250458435</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.9252579754831131</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3158,6 +3908,24 @@
       <c r="T42" t="n">
         <v>0.6052485013710623</v>
       </c>
+      <c r="U42" t="n">
+        <v>7.609193198866478</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.02983997332888815</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.9998829822963298</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.9801136802056106</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.9970193835375485</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.9606228261261859</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3222,6 +3990,24 @@
       <c r="T43" t="n">
         <v>0.7265064609383657</v>
       </c>
+      <c r="U43" t="n">
+        <v>6.568619769961662</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.02575929321553592</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.9998989847173445</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.9649223972694777</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.9985322389355764</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.9310752327522758</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3286,6 +4072,24 @@
       <c r="T44" t="n">
         <v>0.7940669954810665</v>
       </c>
+      <c r="U44" t="n">
+        <v>9.825831388564762</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.03853267211201867</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.9998488938057306</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.9785464396722181</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.9964273381627005</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.9575531345951739</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3350,6 +4154,24 @@
       <c r="T45" t="n">
         <v>0.892474934017691</v>
       </c>
+      <c r="U45" t="n">
+        <v>7.836818636439406</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.03073262210368395</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.9998794817667327</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.9710528992425628</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.9978832269226585</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.9429437331273867</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3414,6 +4236,24 @@
       <c r="T46" t="n">
         <v>0.6703385073664702</v>
       </c>
+      <c r="U46" t="n">
+        <v>7.869336556092682</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.0308601433572262</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0.999878981691076</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0.9759625701664653</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0.9974455414830742</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0.9525029383659326</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3478,6 +4318,24 @@
       <c r="T47" t="n">
         <v>0.8159378969700728</v>
       </c>
+      <c r="U47" t="n">
+        <v>4.495857392898821</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.01895940990165027</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.999691146758702</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0.9889758405670696</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>0.9967713107223721</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>0.9780732132253417</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3542,6 +4400,24 @@
       <c r="T48" t="n">
         <v>0.8141485856822432</v>
       </c>
+      <c r="U48" t="n">
+        <v>5.885743457242874</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.02308134689114853</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0.9999094863061353</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0.9784088467825339</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0.997876509893465</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0.9572838714623279</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3606,6 +4482,24 @@
       <c r="T49" t="n">
         <v>0.8062894171951291</v>
       </c>
+      <c r="U49" t="n">
+        <v>9.007463743957327</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.03532338723120521</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.9998614790430913</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0.9796996615112018</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.9965412522505763</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0.9598114267651634</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3670,6 +4564,24 @@
       <c r="T50" t="n">
         <v>0.8130894052049265</v>
       </c>
+      <c r="U50" t="n">
+        <v>7.381567761293547</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.02894732455409234</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.9998864828259265</v>
+      </c>
+      <c r="X50" t="n">
+        <v>0.9815276449498403</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.9968890382579664</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0.96339651780078</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3734,6 +4646,24 @@
       <c r="T51" t="n">
         <v>0.8653808156713433</v>
       </c>
+      <c r="U51" t="n">
+        <v>4.292365394232373</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.01683280546757793</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0.9999339900133142</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0.9914639401452963</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.9961016930171407</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0.9830007446084357</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3798,6 +4728,24 @@
       <c r="T52" t="n">
         <v>0.7134948692869031</v>
       </c>
+      <c r="U52" t="n">
+        <v>5.842386231038507</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.02291131855309218</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0.9999101530736776</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0.9912614360251183</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0.9948097339142667</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0.9825992345505797</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3862,6 +4810,24 @@
       <c r="T53" t="n">
         <v>0.6855802155580321</v>
       </c>
+      <c r="U53" t="n">
+        <v>3.72330180030005</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0.01460118353058843</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0.9999427413373067</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.9920564363936896</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.9963683404685483</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0.9841759729901467</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3926,6 +4892,24 @@
       <c r="T54" t="n">
         <v>0.8454417756599041</v>
       </c>
+      <c r="U54" t="n">
+        <v>7.121424404067345</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0.02792715452575429</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0.9998904834311804</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0.9732378529130039</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0.9979217986024477</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0.9471919183427138</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3990,6 +4974,24 @@
       <c r="T55" t="n">
         <v>0.6021183508355402</v>
       </c>
+      <c r="U55" t="n">
+        <v>6.481905317552926</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0.02541923653942324</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0.9999003182524291</v>
+      </c>
+      <c r="X55" t="n">
+        <v>0.9786110917859902</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>0.997638992711115</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>0.9576796689665675</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -4054,6 +5056,24 @@
       <c r="T56" t="n">
         <v>0.7694323144104803</v>
       </c>
+      <c r="U56" t="n">
+        <v>6.568619769961662</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.02575929321553592</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0.9998989847173445</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0.9715616783333463</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0.9981950610318918</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0.9439320948059086</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -4118,6 +5138,24 @@
       <c r="T57" t="n">
         <v>0.9813688202049343</v>
       </c>
+      <c r="U57" t="n">
+        <v>6.303056759459911</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.02471786964494083</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0.9999030686685411</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0.9848285084075232</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>0.9967706159523843</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0.969887190972187</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -4182,6 +5220,24 @@
       <c r="T58" t="n">
         <v>0.8422166377992671</v>
       </c>
+      <c r="U58" t="n">
+        <v>8.323133022170351</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0.03871478579763291</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0.9988584754365959</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0.9838648399275945</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>0.9958109861185557</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0.9679900232457513</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -4246,6 +5302,24 @@
       <c r="T59" t="n">
         <v>0.7283024978001152</v>
       </c>
+      <c r="U59" t="n">
+        <v>6.763727287881314</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0.02652442073678947</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0.9998959842634041</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0.9834016703048255</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>0.9968303968647008</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0.9670788451583208</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4310,6 +5384,24 @@
       <c r="T60" t="n">
         <v>0.7265760949574748</v>
       </c>
+      <c r="U60" t="n">
+        <v>4.677160776796132</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0.01834180696782797</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0.9999280724513763</v>
+      </c>
+      <c r="X60" t="n">
+        <v>0.985884321548821</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>0.9974274610502439</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>0.9719678954757791</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4374,6 +5466,24 @@
       <c r="T61" t="n">
         <v>0.8381802350296059</v>
       </c>
+      <c r="U61" t="n">
+        <v>9.321803633938991</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.03655609268211369</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0.9998566449784098</v>
+      </c>
+      <c r="X61" t="n">
+        <v>0.9710461124224463</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>0.9974816964657781</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0.9429305524507462</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4438,6 +5548,24 @@
       <c r="T62" t="n">
         <v>0.6722108441300645</v>
       </c>
+      <c r="U62" t="n">
+        <v>11.00731580263377</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.04316594432405401</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.9998307243902035</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.9671700283200478</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.9973719821988052</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.9354178636806022</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4502,6 +5630,24 @@
       <c r="T63" t="n">
         <v>0.6612549773758402</v>
       </c>
+      <c r="U63" t="n">
+        <v>4.617544590765128</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0.0181080180030005</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0.9999289892567471</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0.9920977096609829</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>0.9954686199552519</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0.9842578655145678</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4566,6 +5712,24 @@
       <c r="T64" t="n">
         <v>0.6218724612774554</v>
       </c>
+      <c r="U64" t="n">
+        <v>5.430492582097016</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0.02129604934155693</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0.9999164873653292</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0.9846422329754445</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0.9972524851087877</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>0.9695203269588696</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4630,6 +5794,24 @@
       <c r="T65" t="n">
         <v>0.7336562677106536</v>
       </c>
+      <c r="U65" t="n">
+        <v>9.977581680280046</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.03912777129521586</v>
+      </c>
+      <c r="W65" t="n">
+        <v>0.9998465601193326</v>
+      </c>
+      <c r="X65" t="n">
+        <v>0.9628639673191854</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>0.9978905256411006</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0.9271070195616413</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4694,6 +5876,24 @@
       <c r="T66" t="n">
         <v>0.9350230099605422</v>
       </c>
+      <c r="U66" t="n">
+        <v>8.346266044340725</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0.03273045507584598</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0.9998716472481111</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.9819848860933118</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>0.9963922343011999</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0.9642943165156945</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4758,6 +5958,24 @@
       <c r="T67" t="n">
         <v>0.836535321793914</v>
       </c>
+      <c r="U67" t="n">
+        <v>11.565540090015</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0.04535505917652943</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0.9998221397580964</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.9780417466299353</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>0.9958881801819522</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0.9565656581509345</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4822,6 +6040,24 @@
       <c r="T68" t="n">
         <v>0.594288912460719</v>
       </c>
+      <c r="U68" t="n">
+        <v>8.866968408768866</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0.03776502458948069</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0.9993396073302511</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.9831429916953524</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>0.9957994234447927</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0.9665701421196877</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4886,6 +6122,24 @@
       <c r="T69" t="n">
         <v>0.7329872387574156</v>
       </c>
+      <c r="U69" t="n">
+        <v>8.899070678446408</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0.03489831638606435</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0.9998631459619469</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.9678136692693963</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>0.9978345500499943</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0.9366632984246923</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4950,6 +6204,24 @@
       <c r="T70" t="n">
         <v>0.9578663778737779</v>
       </c>
+      <c r="U70" t="n">
+        <v>8.227033672278715</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.03226287714619103</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0.9998734808588523</v>
+      </c>
+      <c r="X70" t="n">
+        <v>0.9790822042475298</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>0.9969344223497196</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>0.9586019626742016</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -5014,6 +6286,24 @@
       <c r="T71" t="n">
         <v>0.8307018833276572</v>
       </c>
+      <c r="U71" t="n">
+        <v>6.769146941156859</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.02654567427904651</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0.9998959009174613</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0.9824858312257549</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>0.9969928308325736</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>0.9652784085593625</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -5078,6 +6368,24 @@
       <c r="T72" t="n">
         <v>0.8273139130931541</v>
       </c>
+      <c r="U72" t="n">
+        <v>6.910057926321052</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0.02709826637772961</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0.9998937339229487</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0.9737549581899705</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>0.9979443338827627</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0.9481987185995512</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -5142,6 +6450,24 @@
       <c r="T73" t="n">
         <v>0.7374767589685881</v>
       </c>
+      <c r="U73" t="n">
+        <v>11.57095974329055</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0.04537631271878646</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0.9998220564121538</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0.9663508190721181</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>0.9973033606189006</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0.9338339055213535</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -5206,6 +6532,24 @@
       <c r="T74" t="n">
         <v>0.7495304429389414</v>
       </c>
+      <c r="U74" t="n">
+        <v>4.877687947991332</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.01912818803133856</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0.9999249886514934</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0.9876368416173543</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>0.9969380730326527</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0.9754265309199031</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -5270,6 +6614,24 @@
       <c r="T75" t="n">
         <v>0.8042932663310409</v>
       </c>
+      <c r="U75" t="n">
+        <v>8.498016336056009</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0.03332555425904318</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0.999869313561713</v>
+      </c>
+      <c r="X75" t="n">
+        <v>0.9864759163142707</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>0.9951116354193382</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>0.97313473346808</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -5334,6 +6696,24 @@
       <c r="T76" t="n">
         <v>0.974856196622002</v>
       </c>
+      <c r="U76" t="n">
+        <v>7.771782797132857</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.03047757959659944</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0.9998804819180462</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0.984183363313586</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>0.9961770265315614</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0.9686168926232421</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5398,6 +6778,24 @@
       <c r="T77" t="n">
         <v>0.8216270961120783</v>
       </c>
+      <c r="U77" t="n">
+        <v>7.218978163027169</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0.02830971828638106</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0.99988898320421</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0.9809201036647164</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>0.9970540199784512</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0.9622042497735979</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5462,6 +6860,24 @@
       <c r="T78" t="n">
         <v>0.6763229513362352</v>
       </c>
+      <c r="U78" t="n">
+        <v>10.27024295715953</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0.0402754625770962</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.9998420594384223</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0.9754731961090051</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>0.9967295610295587</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>0.9515479563271174</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5526,6 +6942,24 @@
       <c r="T79" t="n">
         <v>0.9463899239927138</v>
       </c>
+      <c r="U79" t="n">
+        <v>6.209984330721783</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0.0267186197699616</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0.9994926966732225</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0.9851709804608665</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>0.99666453037598</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0.9705618607422249</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5590,6 +7024,24 @@
       <c r="T80" t="n">
         <v>0.716375476785548</v>
       </c>
+      <c r="U80" t="n">
+        <v>8.286649858309721</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0.03249666611101851</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0.9998725640534816</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0.9869868894718035</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0.9950470039201935</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0.974143119989226</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5654,6 +7106,24 @@
       <c r="T81" t="n">
         <v>0.6864225963648877</v>
       </c>
+      <c r="U81" t="n">
+        <v>5.490108768128021</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0.0215298383063844</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0.9999155705599587</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0.9788628659557396</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0.9979773709394173</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0.9581725103470842</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5718,6 +7188,24 @@
       <c r="T82" t="n">
         <v>0.9232478865771004</v>
       </c>
+      <c r="U82" t="n">
+        <v>6.471066011001834</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0.02537672945490915</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0.9999004849443146</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0.9792806937326337</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0.9975674154679354</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0.9589906771174683</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5782,6 +7270,24 @@
       <c r="T83" t="n">
         <v>0.7531857691681176</v>
       </c>
+      <c r="U83" t="n">
+        <v>6.178404734122354</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0.02422903817302884</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0.9999049856252249</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0.9871356492965262</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0.9962692367547745</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0.9744367901120743</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5846,6 +7352,24 @@
       <c r="T84" t="n">
         <v>0.965431754193505</v>
       </c>
+      <c r="U84" t="n">
+        <v>9.533170111685283</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0.03738498083013837</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0.999853394486641</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0.9777348794574174</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0.9966594960396231</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0.9559654945076106</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5910,6 +7434,24 @@
       <c r="T85" t="n">
         <v>0.9839780009245188</v>
       </c>
+      <c r="U85" t="n">
+        <v>9.457294965827638</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0.03708743123853975</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0.99985456132984</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0.970216322735618</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0.9975153115840508</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0.9413197129026248</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5974,6 +7516,24 @@
       <c r="T86" t="n">
         <v>0.8933065994418085</v>
       </c>
+      <c r="U86" t="n">
+        <v>9.619884564094017</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0.03772503750625104</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0.9998520609515564</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0.9726684496255592</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0.9972485332869688</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0.9460839128969889</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -6038,6 +7598,24 @@
       <c r="T87" t="n">
         <v>0.8022500333088446</v>
       </c>
+      <c r="U87" t="n">
+        <v>7.999408234705784</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0.03137022837139523</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0.9998769813884492</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0.9761401182663394</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0.9973840710813831</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0.9528495304890231</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -6102,6 +7680,24 @@
       <c r="T88" t="n">
         <v>0.6516988981287931</v>
       </c>
+      <c r="U88" t="n">
+        <v>6.471066011001834</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0.02537672945490915</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0.9999004849443145</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0.9734919792352213</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0.9980940580393117</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0.9476866336353087</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -6166,6 +7762,24 @@
       <c r="T89" t="n">
         <v>0.7431258137357967</v>
       </c>
+      <c r="U89" t="n">
+        <v>6.644494915819301</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0.02605684280713452</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0.9998978178741452</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0.9832372509944092</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0.9969168226294489</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0.9667554917430428</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -6230,6 +7844,24 @@
       <c r="T90" t="n">
         <v>0.8006181731041928</v>
       </c>
+      <c r="U90" t="n">
+        <v>7.532741123520571</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0.03207551258543081</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0.9994474371349483</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0.9861973212325047</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0.9956443436237044</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0.972585156406168</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -6294,6 +7926,24 @@
       <c r="T91" t="n">
         <v>0.8077262225343242</v>
       </c>
+      <c r="U91" t="n">
+        <v>13.12098058009668</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0.05145482580430072</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0.9997982194725171</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0.9850055266879182</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0.9931743079410578</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0.9702358876057432</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -6358,6 +8008,24 @@
       <c r="T92" t="n">
         <v>0.6840510630730532</v>
       </c>
+      <c r="U92" t="n">
+        <v>10.22146607767962</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.0400841806967828</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0.9998428095519072</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0.9874736545595548</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0.9936458497908424</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0.9751042184492029</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -6422,6 +8090,24 @@
       <c r="T93" t="n">
         <v>0.6194371581200879</v>
       </c>
+      <c r="U93" t="n">
+        <v>9.186312302050341</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.03602475412568761</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0.9998587286269791</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0.9859444945405086</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0.9949131309333432</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0.972086546314739</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6486,6 +8172,24 @@
       <c r="T94" t="n">
         <v>0.8767481691413811</v>
       </c>
+      <c r="U94" t="n">
+        <v>6.725789714952493</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0.02637564594099016</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0.9998965676850036</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0.9758334184141126</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0.9978291037750063</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0.9522508604937726</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6550,6 +8254,24 @@
       <c r="T95" t="n">
         <v>0.7057324840764331</v>
       </c>
+      <c r="U95" t="n">
+        <v>8.227033672278713</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0.03226287714619103</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0.9998734808588523</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0.9764992383851718</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0.9972687041454905</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0.9535507625668207</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6614,6 +8336,24 @@
       <c r="T96" t="n">
         <v>0.7057324840764331</v>
       </c>
+      <c r="U96" t="n">
+        <v>8.227033672278713</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0.03226287714619103</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0.9998734808588523</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.9764992383851718</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0.9972687041454905</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0.9535507625668207</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6678,6 +8418,24 @@
       <c r="T97" t="n">
         <v>0.8048042497723854</v>
       </c>
+      <c r="U97" t="n">
+        <v>7.002192032005333</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0.02745957659609935</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0.9998923170419216</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0.9811532165817224</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0.9971076387072149</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0.9626616344086603</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6742,6 +8500,24 @@
       <c r="T98" t="n">
         <v>0.5600820533723462</v>
       </c>
+      <c r="U98" t="n">
+        <v>6.086270628438073</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0.02386772795465911</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0.9999064025062524</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0.9894230738464453</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0.9955319272877443</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0.9789580190597484</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6806,6 +8582,24 @@
       <c r="T99" t="n">
         <v>0.3952393846335605</v>
       </c>
+      <c r="U99" t="n">
+        <v>11.51134355725954</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0.045142523753959</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0.9998229732175243</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0.9632592803093324</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0.9975397041811472</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0.927868441102053</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6870,6 +8664,24 @@
       <c r="T100" t="n">
         <v>0.3830342626646987</v>
       </c>
+      <c r="U100" t="n">
+        <v>7.961470661776964</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0.03122145357559594</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0.9998775648100486</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0.9611651799157461</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0.9983898137489139</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0.9238385030824686</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6934,6 +8746,24 @@
       <c r="T101" t="n">
         <v>0.8416519083800509</v>
       </c>
+      <c r="U101" t="n">
+        <v>4.740842640440083</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0.02216769461576925</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0.9993285367697212</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0.9875205900116254</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0.9969519555849832</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0.9751969156969087</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6998,6 +8828,24 @@
       <c r="T102" t="n">
         <v>0.8037981842734963</v>
       </c>
+      <c r="U102" t="n">
+        <v>5.463010501750292</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0.02142357059509918</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0.9999159872896726</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0.976399176814164</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0.9981956003761878</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0.9533553524833771</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -7062,6 +8910,24 @@
       <c r="T103" t="n">
         <v>0.9471523105938859</v>
       </c>
+      <c r="U103" t="n">
+        <v>7.47370186697783</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0.02930863477246208</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0.9998850659448992</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0.9882406247230349</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0.9950598267753444</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0.9766195323529743</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -7126,6 +8992,24 @@
       <c r="T104" t="n">
         <v>0.6610636913358497</v>
       </c>
+      <c r="U104" t="n">
+        <v>12.18338056342724</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0.0477779629938323</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0.999812638320619</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0.9679577260265888</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0.9970198339845998</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0.9369421593745647</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -7190,6 +9074,24 @@
       <c r="T105" t="n">
         <v>0.6683707922609278</v>
       </c>
+      <c r="U105" t="n">
+        <v>12.70908693115519</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0.04983955659276545</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0.9998045537641685</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0.9589863959165295</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0.997561447056159</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0.9196549075529746</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -7254,6 +9156,24 @@
       <c r="T106" t="n">
         <v>0.9193502346969963</v>
       </c>
+      <c r="U106" t="n">
+        <v>10.69297591265211</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0.04193323887314552</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0.999835558454885</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0.9778132091243046</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0.9962384333627785</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0.9561186719379711</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -7318,6 +9238,24 @@
       <c r="T107" t="n">
         <v>0.9390122050015289</v>
       </c>
+      <c r="U107" t="n">
+        <v>7.853077596266044</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0.03079638273045508</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0.9998792317289042</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0.97552964242803</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0.9974954952276961</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0.9516580832557601</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -7382,6 +9320,24 @@
       <c r="T108" t="n">
         <v>0.9156922638918129</v>
       </c>
+      <c r="U108" t="n">
+        <v>9.300125020836807</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0.03647107851308552</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0.9998569783621809</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0.9736805314832678</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0.997239093642539</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0.948053777389539</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -7446,6 +9402,24 @@
       <c r="T109" t="n">
         <v>0.958895653698288</v>
       </c>
+      <c r="U109" t="n">
+        <v>8.535953908984833</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0.03347432905484248</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0.9998687301401135</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0.9766796360402499</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0.9971441299180622</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0.9539031114557149</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7510,6 +9484,24 @@
       <c r="T110" t="n">
         <v>0.9221736039376568</v>
       </c>
+      <c r="U110" t="n">
+        <v>9.847510001666945</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0.03861768628104684</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0.9998485604219594</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.9767060303014186</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0.996700174328946</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0.9539546696271556</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7574,6 +9566,24 @@
       <c r="T111" t="n">
         <v>0.7542211236367233</v>
       </c>
+      <c r="U111" t="n">
+        <v>14.11819678279713</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0.05536547757959659</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0.9997828838190445</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0.9640541753841659</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0.9969151479637139</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0.9294004530756441</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7638,6 +9648,24 @@
       <c r="T112" t="n">
         <v>0.684423382004901</v>
       </c>
+      <c r="U112" t="n">
+        <v>4.645900983497264</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0.02185630938489746</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0.9993197892904909</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0.9913083844247268</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0.9956586917062972</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0.982692313030762</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7702,6 +9730,24 @@
       <c r="T113" t="n">
         <v>0.9640193499285361</v>
       </c>
+      <c r="U113" t="n">
+        <v>9.870702200366759</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0.03928196366061022</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0.999739971046363</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0.9807421628554213</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0.995988524723023</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0.9618551900023297</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7766,6 +9812,24 @@
       <c r="T114" t="n">
         <v>0.7912560822840621</v>
       </c>
+      <c r="U114" t="n">
+        <v>9.37600016669445</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0.03676862810468411</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0.9998558115189818</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0.9719588288900274</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0.9973855698559309</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0.9447039650572735</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7830,6 +9894,24 @@
       <c r="T115" t="n">
         <v>0.9007335880949791</v>
       </c>
+      <c r="U115" t="n">
+        <v>8.985785130855144</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0.03523837306217703</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0.9998618124268623</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0.9798466346026897</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0.9965246139282833</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0.9600994273422169</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7894,6 +9976,24 @@
       <c r="T116" t="n">
         <v>0.8570481054282094</v>
       </c>
+      <c r="U116" t="n">
+        <v>13.49493665610935</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0.05292132022003667</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0.9997924686024651</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0.96396009863986</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0.9970593101488614</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0.9292190717697686</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7958,6 +10058,24 @@
       <c r="T117" t="n">
         <v>0.6686223890721767</v>
       </c>
+      <c r="U117" t="n">
+        <v>13.02342682113686</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0.05107226204367394</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0.9997997196994872</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0.9334181951462385</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0.9984417410516844</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0.8712695270300613</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -8022,6 +10140,24 @@
       <c r="T118" t="n">
         <v>0.7465742663190291</v>
       </c>
+      <c r="U118" t="n">
+        <v>10.1726891981997</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0.03989289881646941</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0.9998435596653923</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0.9631869870573478</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0.997830631338265</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>0.9277291720366116</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -8086,6 +10222,24 @@
       <c r="T119" t="n">
         <v>0.8832521759737265</v>
       </c>
+      <c r="U119" t="n">
+        <v>11.12112852142024</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0.04361226871145191</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0.9998289741254049</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0.9657071352675852</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>0.9974563989285886</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>0.9325902711067261</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -8150,6 +10304,24 @@
       <c r="T120" t="n">
         <v>0.9500274076081913</v>
       </c>
+      <c r="U120" t="n">
+        <v>10.14559093182197</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0.0397866311051842</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0.9998439763951061</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0.9785326411357695</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>0.9963129994586106</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>0.9575261297681447</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -8214,6 +10386,24 @@
       <c r="T121" t="n">
         <v>0.8885890640650879</v>
       </c>
+      <c r="U121" t="n">
+        <v>17.32663152192032</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0.06794757459576596</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0.999733543020916</v>
+      </c>
+      <c r="X121" t="n">
+        <v>0.9386758554212078</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>0.9977536817349435</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>0.8811123615507361</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -8278,6 +10468,24 @@
       <c r="T122" t="n">
         <v>0.7857214063443816</v>
       </c>
+      <c r="U122" t="n">
+        <v>15.24006501083514</v>
+      </c>
+      <c r="V122" t="n">
+        <v>0.05976496082680447</v>
+      </c>
+      <c r="W122" t="n">
+        <v>0.9997656312088883</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0.9731519388877743</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>0.9955561620759745</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>0.9470246961610345</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -8342,6 +10550,24 @@
       <c r="T123" t="n">
         <v>0.969179462332034</v>
       </c>
+      <c r="U123" t="n">
+        <v>5.300420903483914</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0.0207859643273879</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0.9999184876679561</v>
+      </c>
+      <c r="X123" t="n">
+        <v>0.9891833336093075</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>0.996197142573551</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>0.9784836674904226</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -8406,6 +10632,24 @@
       <c r="T124" t="n">
         <v>0.6184104285885537</v>
       </c>
+      <c r="U124" t="n">
+        <v>8.246000500083346</v>
+      </c>
+      <c r="V124" t="n">
+        <v>0.03797749624937472</v>
+      </c>
+      <c r="W124" t="n">
+        <v>0.9989166355837474</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0.9837933104597035</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>0.9958720600638166</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>0.9678492777052625</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -8470,6 +10714,24 @@
       <c r="T125" t="n">
         <v>0.8668839913075392</v>
       </c>
+      <c r="U125" t="n">
+        <v>5.652698366394398</v>
+      </c>
+      <c r="V125" t="n">
+        <v>0.02216744457409568</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0.9999130701816752</v>
+      </c>
+      <c r="X125" t="n">
+        <v>0.9877067313078147</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>0.996429710524931</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>0.9755645870707677</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -8534,6 +10796,24 @@
       <c r="T126" t="n">
         <v>0.9651904387334862</v>
       </c>
+      <c r="U126" t="n">
+        <v>7.088906484414069</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0.02779963327221203</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0.9998909835068371</v>
+      </c>
+      <c r="X126" t="n">
+        <v>0.9864886645866116</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>0.9959216741693837</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>0.9731598853578761</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8598,6 +10878,24 @@
       <c r="T127" t="n">
         <v>0.984326639799061</v>
       </c>
+      <c r="U127" t="n">
+        <v>3.446899483247208</v>
+      </c>
+      <c r="V127" t="n">
+        <v>0.01351725287547925</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0.9999469919803886</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0.9935925055464835</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>0.9958329424235326</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0.9872260670781389</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8662,6 +10960,24 @@
       <c r="T128" t="n">
         <v>0.8101865125590416</v>
       </c>
+      <c r="U128" t="n">
+        <v>5.365456742790466</v>
+      </c>
+      <c r="V128" t="n">
+        <v>0.02104100683447242</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0.9999174875166428</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0.9864260243378985</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>0.9969304280246637</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>0.9730363014910723</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8726,6 +11042,24 @@
       <c r="T129" t="n">
         <v>0.7892555963012582</v>
       </c>
+      <c r="U129" t="n">
+        <v>9.544009418236373</v>
+      </c>
+      <c r="V129" t="n">
+        <v>0.03742748791465244</v>
+      </c>
+      <c r="W129" t="n">
+        <v>0.9998532277947554</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0.9654385089198716</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>0.9978346014946106</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>0.932071514505425</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8790,6 +11124,24 @@
       <c r="T130" t="n">
         <v>0.9857988165680474</v>
       </c>
+      <c r="U130" t="n">
+        <v>6.86128104684114</v>
+      </c>
+      <c r="V130" t="n">
+        <v>0.02690698449741624</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0.9998944840364341</v>
+      </c>
+      <c r="X130" t="n">
+        <v>0.9839987072511852</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>0.9966651666944082</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>0.9682534558720037</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8854,6 +11206,24 @@
       <c r="T131" t="n">
         <v>0.8444465067573651</v>
       </c>
+      <c r="U131" t="n">
+        <v>9.170053342223703</v>
+      </c>
+      <c r="V131" t="n">
+        <v>0.03596099349891648</v>
+      </c>
+      <c r="W131" t="n">
+        <v>0.9998589786648077</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0.9645656826215757</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>0.9979700681983199</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>0.9303869560912262</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8918,6 +11288,24 @@
       <c r="T132" t="n">
         <v>0.833792982828481</v>
       </c>
+      <c r="U132" t="n">
+        <v>10.35153775629272</v>
+      </c>
+      <c r="V132" t="n">
+        <v>0.04059426571095182</v>
+      </c>
+      <c r="W132" t="n">
+        <v>0.9998408092492803</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0.9770119647975064</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>0.9964849053329715</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>0.9545523793574838</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8982,6 +11370,24 @@
       <c r="T133" t="n">
         <v>0.7851095020508974</v>
       </c>
+      <c r="U133" t="n">
+        <v>7.116004750791797</v>
+      </c>
+      <c r="V133" t="n">
+        <v>0.02790590098349724</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0.9998905667771228</v>
+      </c>
+      <c r="X133" t="n">
+        <v>0.980755108361221</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>0.997120891300413</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>0.9618805825766304</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -9046,6 +11452,24 @@
       <c r="T134" t="n">
         <v>0.8380411237264525</v>
       </c>
+      <c r="U134" t="n">
+        <v>10.15643023837306</v>
+      </c>
+      <c r="V134" t="n">
+        <v>0.03982913818969828</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0.9998438097032205</v>
+      </c>
+      <c r="X134" t="n">
+        <v>0.9532296152550664</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>0.9982873069048636</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>0.9086466993993221</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -9110,6 +11534,24 @@
       <c r="T135" t="n">
         <v>0.7131733926440971</v>
       </c>
+      <c r="U135" t="n">
+        <v>5.618600933488917</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0.02552700450075007</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0.9993265914210805</v>
+      </c>
+      <c r="X135" t="n">
+        <v>0.9860983988199311</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>0.9967633828914862</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>0.9723900521552319</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -9174,6 +11616,24 @@
       <c r="T136" t="n">
         <v>0.6738931125912325</v>
       </c>
+      <c r="U136" t="n">
+        <v>8.248712285380897</v>
+      </c>
+      <c r="V136" t="n">
+        <v>0.0323478913152192</v>
+      </c>
+      <c r="W136" t="n">
+        <v>0.999873147475081</v>
+      </c>
+      <c r="X136" t="n">
+        <v>0.9574954505519333</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>0.9984730240958686</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>0.9167975378276497</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -9238,6 +11698,24 @@
       <c r="T137" t="n">
         <v>0.8248651225923652</v>
       </c>
+      <c r="U137" t="n">
+        <v>10.01551925320887</v>
+      </c>
+      <c r="V137" t="n">
+        <v>0.03927654609101517</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0.999845976697733</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0.9621978643330926</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>0.9979191700539423</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>0.9258247301271645</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -9302,6 +11780,24 @@
       <c r="T138" t="n">
         <v>0.8884398756371207</v>
       </c>
+      <c r="U138" t="n">
+        <v>13.34860601766961</v>
+      </c>
+      <c r="V138" t="n">
+        <v>0.05234747457909652</v>
+      </c>
+      <c r="W138" t="n">
+        <v>0.9997947189429202</v>
+      </c>
+      <c r="X138" t="n">
+        <v>0.9605909680149627</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>0.9973360384145957</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>0.922735007831923</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -9366,6 +11862,24 @@
       <c r="T139" t="n">
         <v>0.8830296207051465</v>
       </c>
+      <c r="U139" t="n">
+        <v>2.558076346057677</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0.01003167194532422</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0.9999606607150056</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0.9922878155135263</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>0.9974330524719266</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>0.9846351088166061</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -9430,6 +11944,24 @@
       <c r="T140" t="n">
         <v>0.7489459828139958</v>
       </c>
+      <c r="U140" t="n">
+        <v>7.733845224204035</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0.03032880480080014</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0.9998810653396455</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0.9777198388245102</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>0.997293514518094</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>0.9559360832310261</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -9494,6 +12026,24 @@
       <c r="T141" t="n">
         <v>0.6601147507788785</v>
       </c>
+      <c r="U141" t="n">
+        <v>12.568175945991</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0.04928696449408235</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0.9998067207586814</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0.96771836285237</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>0.9969479149576351</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>0.9364788298016712</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -9558,6 +12108,24 @@
       <c r="T142" t="n">
         <v>0.8377066935147247</v>
       </c>
+      <c r="U142" t="n">
+        <v>9.191731955325887</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0.03604600766794466</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0.9998586452810365</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0.9749212738847215</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0.9971377812343648</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0.950471490273008</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -9622,6 +12190,24 @@
       <c r="T143" t="n">
         <v>0.8331038403154448</v>
       </c>
+      <c r="U143" t="n">
+        <v>10.23772503750625</v>
+      </c>
+      <c r="V143" t="n">
+        <v>0.04014794132355392</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0.999842559514079</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0.9710844337511566</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>0.9972299517407014</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0.9430049774738045</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9686,6 +12272,24 @@
       <c r="T144" t="n">
         <v>0.6240376183941498</v>
       </c>
+      <c r="U144" t="n">
+        <v>4.585026671111852</v>
+      </c>
+      <c r="V144" t="n">
+        <v>0.01798049674945824</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0.9999294893324038</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0.987017654391587</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>0.9972590869127388</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>0.9742038500806701</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9750,6 +12354,24 @@
       <c r="T145" t="n">
         <v>0.9196127625331444</v>
       </c>
+      <c r="U145" t="n">
+        <v>10.85556551091849</v>
+      </c>
+      <c r="V145" t="n">
+        <v>0.04257084514085682</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0.9998330580766015</v>
+      </c>
+      <c r="X145" t="n">
+        <v>0.9735012325661788</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>0.9967974389539564</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>0.9477046498078693</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9814,6 +12436,24 @@
       <c r="T146" t="n">
         <v>0.4153414273250103</v>
       </c>
+      <c r="U146" t="n">
+        <v>5.79705392565427</v>
+      </c>
+      <c r="V146" t="n">
+        <v>0.02697074512418731</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0.9991478473210266</v>
+      </c>
+      <c r="X146" t="n">
+        <v>0.9831264942718055</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>0.997238920230643</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>0.9665377037391705</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9878,6 +12518,24 @@
       <c r="T147" t="n">
         <v>0.5152806090169156</v>
       </c>
+      <c r="U147" t="n">
+        <v>8.454659109851642</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0.03315552592098683</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0.9998699803292552</v>
+      </c>
+      <c r="X147" t="n">
+        <v>0.9735954289090341</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>0.9974987143577848</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>0.9478880591925659</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9942,6 +12600,24 @@
       <c r="T148" t="n">
         <v>0.6542946751968977</v>
       </c>
+      <c r="U148" t="n">
+        <v>5.858645190865144</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0.02297507917986331</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0.9999099030358494</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0.9828012285698274</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>0.9973509566053946</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>0.9658982548783621</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -10006,6 +12682,24 @@
       <c r="T149" t="n">
         <v>0.712482240190723</v>
       </c>
+      <c r="U149" t="n">
+        <v>4.83975037506251</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0.01897941323553926</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0.999925572073093</v>
+      </c>
+      <c r="X149" t="n">
+        <v>0.9918166383261611</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>0.9954127860285189</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>0.9837002440606071</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -10070,6 +12764,24 @@
       <c r="T150" t="n">
         <v>0.7738993253501172</v>
       </c>
+      <c r="U150" t="n">
+        <v>6.368092598766461</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0.02497291215202534</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0.9999020685172273</v>
+      </c>
+      <c r="X150" t="n">
+        <v>0.9870580480323119</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>0.9961772531273468</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>0.9742835901853578</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -10134,6 +12846,24 @@
       <c r="T151" t="n">
         <v>0.9142255057134479</v>
       </c>
+      <c r="U151" t="n">
+        <v>13.11556092682114</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0.05143357226204368</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0.99979830281846</v>
+      </c>
+      <c r="X151" t="n">
+        <v>0.9613044466116629</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>0.9973352532186089</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>0.9241062390753555</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -10198,6 +12928,24 @@
       <c r="T152" t="n">
         <v>0.6928992512955047</v>
       </c>
+      <c r="U152" t="n">
+        <v>3.902150358393066</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0.01530255042507084</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0.9999399909211946</v>
+      </c>
+      <c r="X152" t="n">
+        <v>0.9926458524865672</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>0.9958880938640922</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0.9853457884587837</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -10262,6 +13010,24 @@
       <c r="T153" t="n">
         <v>0.9518004837020029</v>
       </c>
+      <c r="U153" t="n">
+        <v>12.48146149358226</v>
+      </c>
+      <c r="V153" t="n">
+        <v>0.04894690781796966</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0.999808054293766</v>
+      </c>
+      <c r="X153" t="n">
+        <v>0.8896276378691887</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>0.9990788119046972</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>0.7914373340607124</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -10326,6 +13092,24 @@
       <c r="T154" t="n">
         <v>0.4426008601266778</v>
       </c>
+      <c r="U154" t="n">
+        <v>19.87386856142691</v>
+      </c>
+      <c r="V154" t="n">
+        <v>0.0779367394565761</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0.9996943704278068</v>
+      </c>
+      <c r="X154" t="n">
+        <v>0.9336891015072682</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>0.997610722538519</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>0.8717753382734499</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -10390,6 +13174,24 @@
       <c r="T155" t="n">
         <v>0.5007117191972243</v>
       </c>
+      <c r="U155" t="n">
+        <v>26.84896232705451</v>
+      </c>
+      <c r="V155" t="n">
+        <v>0.1052900483413902</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0.9995871041994425</v>
+      </c>
+      <c r="X155" t="n">
+        <v>0.9287140948824532</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>0.9969878174267558</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>0.8625098700333341</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -10454,6 +13256,24 @@
       <c r="T156" t="n">
         <v>0.6249564285724051</v>
       </c>
+      <c r="U156" t="n">
+        <v>14.72519794965828</v>
+      </c>
+      <c r="V156" t="n">
+        <v>0.0577458743123854</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0.9997735490734527</v>
+      </c>
+      <c r="X156" t="n">
+        <v>0.9773797484710623</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>0.9949114140771543</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>0.9552711727213571</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -10518,6 +13338,24 @@
       <c r="T157" t="n">
         <v>0.9583789139810158</v>
       </c>
+      <c r="U157" t="n">
+        <v>7.731402650441745</v>
+      </c>
+      <c r="V157" t="n">
+        <v>0.03428071345224207</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0.9992179998380986</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0.9775309137806449</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>0.9972641694957696</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>0.9555666873968227</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -10582,6 +13420,24 @@
       <c r="T158" t="n">
         <v>0.8842448086589791</v>
       </c>
+      <c r="U158" t="n">
+        <v>12.2375770961827</v>
+      </c>
+      <c r="V158" t="n">
+        <v>0.04799049841640274</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0.9998118048611913</v>
+      </c>
+      <c r="X158" t="n">
+        <v>0.9767023469010309</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>0.9958966391130892</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>0.9539474744419816</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -10646,6 +13502,24 @@
       <c r="T159" t="n">
         <v>0.7943055594319675</v>
       </c>
+      <c r="U159" t="n">
+        <v>13.39196324387398</v>
+      </c>
+      <c r="V159" t="n">
+        <v>0.05251750291715285</v>
+      </c>
+      <c r="W159" t="n">
+        <v>0.9997940521753779</v>
+      </c>
+      <c r="X159" t="n">
+        <v>0.9797471483255272</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>0.9948369774267506</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>0.9599044746520027</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -10710,6 +13584,24 @@
       <c r="T160" t="n">
         <v>0.8764027528892024</v>
       </c>
+      <c r="U160" t="n">
+        <v>12.25383605600933</v>
+      </c>
+      <c r="V160" t="n">
+        <v>0.04805425904317385</v>
+      </c>
+      <c r="W160" t="n">
+        <v>0.9998115548233627</v>
+      </c>
+      <c r="X160" t="n">
+        <v>0.9735152714334324</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>0.9963815378535092</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>0.9477319837141096</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -10774,6 +13666,24 @@
       <c r="T161" t="n">
         <v>0.8314445792673752</v>
       </c>
+      <c r="U161" t="n">
+        <v>9.235089181530256</v>
+      </c>
+      <c r="V161" t="n">
+        <v>0.03621603600600101</v>
+      </c>
+      <c r="W161" t="n">
+        <v>0.9998579785134942</v>
+      </c>
+      <c r="X161" t="n">
+        <v>0.9760739462341949</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>0.9969870437603665</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>0.952720348517194</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10838,6 +13748,24 @@
       <c r="T162" t="n">
         <v>0.6852036400470782</v>
       </c>
+      <c r="U162" t="n">
+        <v>4.915625520920154</v>
+      </c>
+      <c r="V162" t="n">
+        <v>0.01927696282713786</v>
+      </c>
+      <c r="W162" t="n">
+        <v>0.9999244052298939</v>
+      </c>
+      <c r="X162" t="n">
+        <v>0.9937498426785271</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>0.9938964953899277</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>0.9875387498235974</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10902,6 +13830,24 @@
       <c r="T163" t="n">
         <v>0.6549766339356375</v>
       </c>
+      <c r="U163" t="n">
+        <v>7.029290298383064</v>
+      </c>
+      <c r="V163" t="n">
+        <v>0.02756584430738456</v>
+      </c>
+      <c r="W163" t="n">
+        <v>0.9998919003122075</v>
+      </c>
+      <c r="X163" t="n">
+        <v>0.992675782227995</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>0.9925378907938238</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>0.9854052086219618</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10966,6 +13912,24 @@
       <c r="T164" t="n">
         <v>0.9848032652034218</v>
       </c>
+      <c r="U164" t="n">
+        <v>5.072795465910986</v>
+      </c>
+      <c r="V164" t="n">
+        <v>0.0198933155525921</v>
+      </c>
+      <c r="W164" t="n">
+        <v>0.9999219881975532</v>
+      </c>
+      <c r="X164" t="n">
+        <v>0.9937291213506266</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>0.9937209977139991</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0.9874975666202884</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -11030,6 +13994,24 @@
       <c r="T165" t="n">
         <v>0.7149815258267617</v>
       </c>
+      <c r="U165" t="n">
+        <v>8.904490331721956</v>
+      </c>
+      <c r="V165" t="n">
+        <v>0.0349195699283214</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0.9998630626160041</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0.9800816026454487</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>0.9965158122273499</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>0.9605599478440714</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -11094,6 +14076,24 @@
       <c r="T166" t="n">
         <v>0.773535702346509</v>
       </c>
+      <c r="U166" t="n">
+        <v>5.446751541923654</v>
+      </c>
+      <c r="V166" t="n">
+        <v>0.02135980996832805</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0.999916237327501</v>
+      </c>
+      <c r="X166" t="n">
+        <v>0.9929490639452577</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>0.9940033243705457</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>0.9859478435897635</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -11158,6 +14158,24 @@
       <c r="T167" t="n">
         <v>0.9441263227228803</v>
       </c>
+      <c r="U167" t="n">
+        <v>5.847805884314053</v>
+      </c>
+      <c r="V167" t="n">
+        <v>0.02293257209534923</v>
+      </c>
+      <c r="W167" t="n">
+        <v>0.999910069727735</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0.9880656516878427</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>0.9961951961012659</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>0.9762737320453213</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -11222,6 +14240,24 @@
       <c r="T168" t="n">
         <v>0.5499187707013042</v>
       </c>
+      <c r="U168" t="n">
+        <v>5.665381396899487</v>
+      </c>
+      <c r="V168" t="n">
+        <v>0.02527279546591096</v>
+      </c>
+      <c r="W168" t="n">
+        <v>0.9993874270343642</v>
+      </c>
+      <c r="X168" t="n">
+        <v>0.9884119943881768</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>0.996075529855532</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>0.9769582706504133</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -11286,6 +14322,24 @@
       <c r="T169" t="n">
         <v>0.7060641371707909</v>
       </c>
+      <c r="U169" t="n">
+        <v>9.083338889814966</v>
+      </c>
+      <c r="V169" t="n">
+        <v>0.03562093682280379</v>
+      </c>
+      <c r="W169" t="n">
+        <v>0.999860312199892</v>
+      </c>
+      <c r="X169" t="n">
+        <v>0.9768375363172492</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>0.9969398959167168</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>0.9542115723583533</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -11350,6 +14404,24 @@
       <c r="T170" t="n">
         <v>0.9173007764570755</v>
       </c>
+      <c r="U170" t="n">
+        <v>6.890693948991509</v>
+      </c>
+      <c r="V170" t="n">
+        <v>0.03055459243207202</v>
+      </c>
+      <c r="W170" t="n">
+        <v>0.9992985571006228</v>
+      </c>
+      <c r="X170" t="n">
+        <v>0.9835531254243025</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>0.9966595652091228</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>0.9673767505319139</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -11414,6 +14486,24 @@
       <c r="T171" t="n">
         <v>0.7262468541405268</v>
       </c>
+      <c r="U171" t="n">
+        <v>3.607734705784287</v>
+      </c>
+      <c r="V171" t="n">
+        <v>0.01648074679113182</v>
+      </c>
+      <c r="W171" t="n">
+        <v>0.9995555020879666</v>
+      </c>
+      <c r="X171" t="n">
+        <v>0.9961288508967552</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>0.9922929918523572</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>0.9922726875888899</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -11478,6 +14568,24 @@
       <c r="T172" t="n">
         <v>0.8644860268587721</v>
       </c>
+      <c r="U172" t="n">
+        <v>7.452814469078169</v>
+      </c>
+      <c r="V172" t="n">
+        <v>0.03136597766294378</v>
+      </c>
+      <c r="W172" t="n">
+        <v>0.9994943494456476</v>
+      </c>
+      <c r="X172" t="n">
+        <v>0.9923180125618367</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>0.9921288368185571</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>0.9846950380546735</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -11542,6 +14650,24 @@
       <c r="T173" t="n">
         <v>0.7450078529465168</v>
       </c>
+      <c r="U173" t="n">
+        <v>8.356510835139225</v>
+      </c>
+      <c r="V173" t="n">
+        <v>0.03625895982663786</v>
+      </c>
+      <c r="W173" t="n">
+        <v>0.9992853222400383</v>
+      </c>
+      <c r="X173" t="n">
+        <v>0.9849827158069571</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>0.9955495452392249</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>0.9701909504384487</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -11606,6 +14732,24 @@
       <c r="T174" t="n">
         <v>0.8072356692661349</v>
       </c>
+      <c r="U174" t="n">
+        <v>9.226195449241517</v>
+      </c>
+      <c r="V174" t="n">
+        <v>0.03942465410901809</v>
+      </c>
+      <c r="W174" t="n">
+        <v>0.9992915866480431</v>
+      </c>
+      <c r="X174" t="n">
+        <v>0.9779443460503995</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>0.9966676047129716</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>0.9563751439719435</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -11670,6 +14814,24 @@
       <c r="T175" t="n">
         <v>0.9177843215466389</v>
       </c>
+      <c r="U175" t="n">
+        <v>7.161258626437737</v>
+      </c>
+      <c r="V175" t="n">
+        <v>0.03033988998166362</v>
+      </c>
+      <c r="W175" t="n">
+        <v>0.9995012147022604</v>
+      </c>
+      <c r="X175" t="n">
+        <v>0.9821572837077422</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>0.9968177932574472</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>0.9646329299401706</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -11734,6 +14896,24 @@
       <c r="T176" t="n">
         <v>0.9486544242227209</v>
       </c>
+      <c r="U176" t="n">
+        <v>4.40075845974329</v>
+      </c>
+      <c r="V176" t="n">
+        <v>0.01725787631271878</v>
+      </c>
+      <c r="W176" t="n">
+        <v>0.9999323230944583</v>
+      </c>
+      <c r="X176" t="n">
+        <v>0.9886670675629153</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>0.996988042688536</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>0.9774625704834543</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -11798,6 +14978,24 @@
       <c r="T177" t="n">
         <v>0.7780096022807969</v>
       </c>
+      <c r="U177" t="n">
+        <v>5.094474079013168</v>
+      </c>
+      <c r="V177" t="n">
+        <v>0.01997832972162027</v>
+      </c>
+      <c r="W177" t="n">
+        <v>0.9999216548137819</v>
+      </c>
+      <c r="X177" t="n">
+        <v>0.9901437806006936</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>0.99598983581929</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>0.9803847062622346</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -11862,6 +15060,24 @@
       <c r="T178" t="n">
         <v>0.7855060660539027</v>
       </c>
+      <c r="U178" t="n">
+        <v>5.219126104350726</v>
+      </c>
+      <c r="V178" t="n">
+        <v>0.02046716119353226</v>
+      </c>
+      <c r="W178" t="n">
+        <v>0.9999197378570981</v>
+      </c>
+      <c r="X178" t="n">
+        <v>0.9918358094715057</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>0.9950397969616361</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>0.9837382729499969</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11926,6 +15142,24 @@
       <c r="T179" t="n">
         <v>0.8262396052732985</v>
       </c>
+      <c r="U179" t="n">
+        <v>5.327519169861644</v>
+      </c>
+      <c r="V179" t="n">
+        <v>0.02089223203867311</v>
+      </c>
+      <c r="W179" t="n">
+        <v>0.9999180709382423</v>
+      </c>
+      <c r="X179" t="n">
+        <v>0.9919454952555647</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>0.9948672322037839</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>0.9839558655578076</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -11990,6 +15224,24 @@
       <c r="T180" t="n">
         <v>0.5832182886765894</v>
       </c>
+      <c r="U180" t="n">
+        <v>4.769294882480413</v>
+      </c>
+      <c r="V180" t="n">
+        <v>0.0187031171861977</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0.9999266555703491</v>
+      </c>
+      <c r="X180" t="n">
+        <v>0.9945597350262</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>0.9931946255863847</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>0.9891490665353851</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -12054,6 +15306,24 @@
       <c r="T181" t="n">
         <v>0.9259806437496146</v>
       </c>
+      <c r="U181" t="n">
+        <v>5.896582763793966</v>
+      </c>
+      <c r="V181" t="n">
+        <v>0.02312385397566261</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0.9999093196142498</v>
+      </c>
+      <c r="X181" t="n">
+        <v>0.9905404831485607</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>0.9951607677998212</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>0.981170448756184</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -12118,6 +15388,24 @@
       <c r="T182" t="n">
         <v>0.9875964546357379</v>
       </c>
+      <c r="U182" t="n">
+        <v>5.240804717452909</v>
+      </c>
+      <c r="V182" t="n">
+        <v>0.02055217536256043</v>
+      </c>
+      <c r="W182" t="n">
+        <v>0.9999194044733268</v>
+      </c>
+      <c r="X182" t="n">
+        <v>0.9895652075263816</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>0.996102691573039</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>0.9792392999467306</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -12182,6 +15470,24 @@
       <c r="T183" t="n">
         <v>0.8092699503871142</v>
       </c>
+      <c r="U183" t="n">
+        <v>5.641859059843308</v>
+      </c>
+      <c r="V183" t="n">
+        <v>0.0221249374895816</v>
+      </c>
+      <c r="W183" t="n">
+        <v>0.9999132368735608</v>
+      </c>
+      <c r="X183" t="n">
+        <v>0.9884519233748089</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>0.9962071902565416</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>0.9770372048233591</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -12246,6 +15552,24 @@
       <c r="T184" t="n">
         <v>0.8446601941747572</v>
       </c>
+      <c r="U184" t="n">
+        <v>6.503583930655109</v>
+      </c>
+      <c r="V184" t="n">
+        <v>0.02550425070845141</v>
+      </c>
+      <c r="W184" t="n">
+        <v>0.9998999848686578</v>
+      </c>
+      <c r="X184" t="n">
+        <v>0.9835014459970481</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>0.9969343454741596</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>0.9672750942782846</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -12310,6 +15634,24 @@
       <c r="T185" t="n">
         <v>0.7109612586445162</v>
       </c>
+      <c r="U185" t="n">
+        <v>7.227243207201196</v>
+      </c>
+      <c r="V185" t="n">
+        <v>0.03282563760626764</v>
+      </c>
+      <c r="W185" t="n">
+        <v>0.9991297801877232</v>
+      </c>
+      <c r="X185" t="n">
+        <v>0.9866671355096075</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>0.9956217503959602</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>0.9735120362947342</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -12374,6 +15716,24 @@
       <c r="T186" t="n">
         <v>0.9011328527291452</v>
       </c>
+      <c r="U186" t="n">
+        <v>7.723005917652942</v>
+      </c>
+      <c r="V186" t="n">
+        <v>0.03028629771628605</v>
+      </c>
+      <c r="W186" t="n">
+        <v>0.9998812320315311</v>
+      </c>
+      <c r="X186" t="n">
+        <v>0.9853457467820189</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>0.9959009566809746</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>0.9709062407014145</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -12438,6 +15798,24 @@
       <c r="T187" t="n">
         <v>0.4399767462665262</v>
       </c>
+      <c r="U187" t="n">
+        <v>5.376296049341557</v>
+      </c>
+      <c r="V187" t="n">
+        <v>0.0210835139189865</v>
+      </c>
+      <c r="W187" t="n">
+        <v>0.9999173208247571</v>
+      </c>
+      <c r="X187" t="n">
+        <v>0.9906117202237178</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>0.9955561875294865</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>0.9813115802445933</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -12502,6 +15880,24 @@
       <c r="T188" t="n">
         <v>0.9310418108280122</v>
       </c>
+      <c r="U188" t="n">
+        <v>6.601137689614935</v>
+      </c>
+      <c r="V188" t="n">
+        <v>0.02588681446907818</v>
+      </c>
+      <c r="W188" t="n">
+        <v>0.9998984846416876</v>
+      </c>
+      <c r="X188" t="n">
+        <v>0.9867815220381186</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>0.9961194907853185</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>0.973737772235866</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -12566,6 +15962,24 @@
       <c r="T189" t="n">
         <v>0.6031764488452556</v>
       </c>
+      <c r="U189" t="n">
+        <v>7.67422903817303</v>
+      </c>
+      <c r="V189" t="n">
+        <v>0.03009501583597266</v>
+      </c>
+      <c r="W189" t="n">
+        <v>0.9998819821450163</v>
+      </c>
+      <c r="X189" t="n">
+        <v>0.9807370499266813</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>0.9968972267105113</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>0.9618451610988897</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -12630,6 +16044,24 @@
       <c r="T190" t="n">
         <v>0.9529006526703171</v>
       </c>
+      <c r="U190" t="n">
+        <v>5.853225537589599</v>
+      </c>
+      <c r="V190" t="n">
+        <v>0.02295382563760627</v>
+      </c>
+      <c r="W190" t="n">
+        <v>0.9999099863817921</v>
+      </c>
+      <c r="X190" t="n">
+        <v>0.9874778319686626</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>0.9963700004568246</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>0.9751124686295302</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -12694,6 +16126,24 @@
       <c r="T191" t="n">
         <v>0.9114084686987906</v>
       </c>
+      <c r="U191" t="n">
+        <v>7.370728454742457</v>
+      </c>
+      <c r="V191" t="n">
+        <v>0.02890481746957826</v>
+      </c>
+      <c r="W191" t="n">
+        <v>0.9998866495178123</v>
+      </c>
+      <c r="X191" t="n">
+        <v>0.9864188617522277</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>0.9957805926632897</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>0.9730221708205604</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -12758,6 +16208,24 @@
       <c r="T192" t="n">
         <v>0.9456297119162951</v>
       </c>
+      <c r="U192" t="n">
+        <v>8.189096099349891</v>
+      </c>
+      <c r="V192" t="n">
+        <v>0.03211410235039173</v>
+      </c>
+      <c r="W192" t="n">
+        <v>0.9998740642804517</v>
+      </c>
+      <c r="X192" t="n">
+        <v>0.9792216182016862</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>0.9969282824677145</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>0.9588749775535288</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -12822,6 +16290,24 @@
       <c r="T193" t="n">
         <v>0.9700559139768462</v>
       </c>
+      <c r="U193" t="n">
+        <v>6.373512252042007</v>
+      </c>
+      <c r="V193" t="n">
+        <v>0.02499416569428238</v>
+      </c>
+      <c r="W193" t="n">
+        <v>0.9999019851712847</v>
+      </c>
+      <c r="X193" t="n">
+        <v>0.9879066994067297</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>0.9959061516422958</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>0.9759596467326986</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -12886,6 +16372,24 @@
       <c r="T194" t="n">
         <v>0.6566659103480385</v>
       </c>
+      <c r="U194" t="n">
+        <v>5.885743457242874</v>
+      </c>
+      <c r="V194" t="n">
+        <v>0.02308134689114853</v>
+      </c>
+      <c r="W194" t="n">
+        <v>0.9999094863061353</v>
+      </c>
+      <c r="X194" t="n">
+        <v>0.9904523652219128</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>0.9952142870567595</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>0.9809958877736813</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -12950,6 +16454,24 @@
       <c r="T195" t="n">
         <v>0.6859835254948921</v>
       </c>
+      <c r="U195" t="n">
+        <v>4.747616269378231</v>
+      </c>
+      <c r="V195" t="n">
+        <v>0.01861810301716953</v>
+      </c>
+      <c r="W195" t="n">
+        <v>0.9999269889541202</v>
+      </c>
+      <c r="X195" t="n">
+        <v>0.98231605013288</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>0.9979128748446116</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>0.9649448223486629</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -13014,6 +16536,24 @@
       <c r="T196" t="n">
         <v>0.7498272545217946</v>
       </c>
+      <c r="U196" t="n">
+        <v>6.269860393398888</v>
+      </c>
+      <c r="V196" t="n">
+        <v>0.02629463243873972</v>
+      </c>
+      <c r="W196" t="n">
+        <v>0.9995922849240723</v>
+      </c>
+      <c r="X196" t="n">
+        <v>0.990755009009976</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>0.9945667522442139</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>0.9815954878783577</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -13078,6 +16618,24 @@
       <c r="T197" t="n">
         <v>0.7582180933981779</v>
       </c>
+      <c r="U197" t="n">
+        <v>7.067227871311887</v>
+      </c>
+      <c r="V197" t="n">
+        <v>0.02771461910318387</v>
+      </c>
+      <c r="W197" t="n">
+        <v>0.9998913168906083</v>
+      </c>
+      <c r="X197" t="n">
+        <v>0.9802926386094287</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>0.9972073152997223</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>0.960973657311836</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -13142,6 +16700,24 @@
       <c r="T198" t="n">
         <v>0.9572619587969877</v>
       </c>
+      <c r="U198" t="n">
+        <v>6.893798966494417</v>
+      </c>
+      <c r="V198" t="n">
+        <v>0.0270345057509585</v>
+      </c>
+      <c r="W198" t="n">
+        <v>0.9998939839607774</v>
+      </c>
+      <c r="X198" t="n">
+        <v>0.9782518795768924</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>0.9975297191564052</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>0.9569767398957227</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -13206,6 +16782,24 @@
       <c r="T199" t="n">
         <v>0.8960848695914926</v>
       </c>
+      <c r="U199" t="n">
+        <v>6.460226704450742</v>
+      </c>
+      <c r="V199" t="n">
+        <v>0.02533422237039507</v>
+      </c>
+      <c r="W199" t="n">
+        <v>0.9999006516362001</v>
+      </c>
+      <c r="X199" t="n">
+        <v>0.9797661997293563</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>0.9975136951617807</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>0.9599418061321049</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -13270,6 +16864,24 @@
       <c r="T200" t="n">
         <v>0.7375020567354351</v>
       </c>
+      <c r="U200" t="n">
+        <v>6.026654442407069</v>
+      </c>
+      <c r="V200" t="n">
+        <v>0.02363393898983164</v>
+      </c>
+      <c r="W200" t="n">
+        <v>0.999907319311623</v>
+      </c>
+      <c r="X200" t="n">
+        <v>0.9836057940896689</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>0.9971418199567426</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>0.967480358166768</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -13334,6 +16946,24 @@
       <c r="T201" t="n">
         <v>0.951931112670104</v>
       </c>
+      <c r="U201" t="n">
+        <v>6.286797799633272</v>
+      </c>
+      <c r="V201" t="n">
+        <v>0.0246541090181697</v>
+      </c>
+      <c r="W201" t="n">
+        <v>0.9999033187063693</v>
+      </c>
+      <c r="X201" t="n">
+        <v>0.9882287346244475</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>0.9958518231309276</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>0.9765960319374367</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -13398,6 +17028,24 @@
       <c r="T202" t="n">
         <v>0.8132031779593987</v>
       </c>
+      <c r="U202" t="n">
+        <v>6.720370061676946</v>
+      </c>
+      <c r="V202" t="n">
+        <v>0.02635439239873312</v>
+      </c>
+      <c r="W202" t="n">
+        <v>0.9998966510309465</v>
+      </c>
+      <c r="X202" t="n">
+        <v>0.986585782546899</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>0.996106612935526</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>0.9733515063236772</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -13462,6 +17110,24 @@
       <c r="T203" t="n">
         <v>0.7294535392558241</v>
       </c>
+      <c r="U203" t="n">
+        <v>3.728721453575596</v>
+      </c>
+      <c r="V203" t="n">
+        <v>0.01462243707284547</v>
+      </c>
+      <c r="W203" t="n">
+        <v>0.9999426579913638</v>
+      </c>
+      <c r="X203" t="n">
+        <v>0.9914785156641436</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>0.9966095402863345</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>0.9830296470235733</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -13526,6 +17192,24 @@
       <c r="T204" t="n">
         <v>0.7337233367338828</v>
       </c>
+      <c r="U204" t="n">
+        <v>3.858793132188698</v>
+      </c>
+      <c r="V204" t="n">
+        <v>0.0151325220870145</v>
+      </c>
+      <c r="W204" t="n">
+        <v>0.999940657688737</v>
+      </c>
+      <c r="X204" t="n">
+        <v>0.992133645607393</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>0.9961987468476494</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>0.9843291707462162</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -13590,6 +17274,24 @@
       <c r="T205" t="n">
         <v>0.8199067084661141</v>
       </c>
+      <c r="U205" t="n">
+        <v>5.072795465910986</v>
+      </c>
+      <c r="V205" t="n">
+        <v>0.0198933155525921</v>
+      </c>
+      <c r="W205" t="n">
+        <v>0.9999219881975532</v>
+      </c>
+      <c r="X205" t="n">
+        <v>0.989609890825343</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>0.9962119050023199</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>0.9793277360193473</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -13654,6 +17356,24 @@
       <c r="T206" t="n">
         <v>0.9432833756285637</v>
       </c>
+      <c r="U206" t="n">
+        <v>6.194663693948992</v>
+      </c>
+      <c r="V206" t="n">
+        <v>0.02429279879979997</v>
+      </c>
+      <c r="W206" t="n">
+        <v>0.9999047355873967</v>
+      </c>
+      <c r="X206" t="n">
+        <v>0.9885449899240002</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>0.9958002211271959</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>0.9772211971038416</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -13718,6 +17438,24 @@
       <c r="T207" t="n">
         <v>0.9401916069692146</v>
       </c>
+      <c r="U207" t="n">
+        <v>3.938322387064505</v>
+      </c>
+      <c r="V207" t="n">
+        <v>0.01658893148858139</v>
+      </c>
+      <c r="W207" t="n">
+        <v>0.9997278923743592</v>
+      </c>
+      <c r="X207" t="n">
+        <v>0.9940216203089071</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>0.994722045122149</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>0.9880789816415451</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -13782,6 +17520,24 @@
       <c r="T208" t="n">
         <v>0.9325383615555682</v>
       </c>
+      <c r="U208" t="n">
+        <v>4.178552675445908</v>
+      </c>
+      <c r="V208" t="n">
+        <v>0.01638648108018003</v>
+      </c>
+      <c r="W208" t="n">
+        <v>0.9999357402781127</v>
+      </c>
+      <c r="X208" t="n">
+        <v>0.9920354216173559</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>0.99593324369797</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>0.984134277743525</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -13846,6 +17602,24 @@
       <c r="T209" t="n">
         <v>0.7385648081997001</v>
       </c>
+      <c r="U209" t="n">
+        <v>7.668809384897482</v>
+      </c>
+      <c r="V209" t="n">
+        <v>0.03007376229371562</v>
+      </c>
+      <c r="W209" t="n">
+        <v>0.999882065490959</v>
+      </c>
+      <c r="X209" t="n">
+        <v>0.9830873418439632</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>0.9964712286628931</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>0.9664607216938292</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -13910,6 +17684,24 @@
       <c r="T210" t="n">
         <v>0.8100044670323809</v>
       </c>
+      <c r="U210" t="n">
+        <v>10.53038631438573</v>
+      </c>
+      <c r="V210" t="n">
+        <v>0.04129563260543424</v>
+      </c>
+      <c r="W210" t="n">
+        <v>0.9998380588331686</v>
+      </c>
+      <c r="X210" t="n">
+        <v>0.980064809464323</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>0.9958804547376289</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>0.9605270307503396</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -13974,6 +17766,24 @@
       <c r="T211" t="n">
         <v>0.50489281484977</v>
       </c>
+      <c r="U211" t="n">
+        <v>4.292365394232373</v>
+      </c>
+      <c r="V211" t="n">
+        <v>0.01683280546757793</v>
+      </c>
+      <c r="W211" t="n">
+        <v>0.9999339900133142</v>
+      </c>
+      <c r="X211" t="n">
+        <v>0.9868676337757512</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>0.9974636776592423</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>0.9739077265941501</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -14038,6 +17848,24 @@
       <c r="T212" t="n">
         <v>0.7880457523379308</v>
       </c>
+      <c r="U212" t="n">
+        <v>9.012883397232871</v>
+      </c>
+      <c r="V212" t="n">
+        <v>0.03534464077346224</v>
+      </c>
+      <c r="W212" t="n">
+        <v>0.9998613956971484</v>
+      </c>
+      <c r="X212" t="n">
+        <v>0.9739595286574789</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>0.9972962359488575</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>0.9485971634626984</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -14102,6 +17930,24 @@
       <c r="T213" t="n">
         <v>0.7603952973716022</v>
       </c>
+      <c r="U213" t="n">
+        <v>9.278446407734622</v>
+      </c>
+      <c r="V213" t="n">
+        <v>0.03638606434405734</v>
+      </c>
+      <c r="W213" t="n">
+        <v>0.9998573117459519</v>
+      </c>
+      <c r="X213" t="n">
+        <v>0.9758155023180594</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>0.99700490870256</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>0.9522158945642466</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -14166,6 +18012,24 @@
       <c r="T214" t="n">
         <v>0.6668775532938958</v>
       </c>
+      <c r="U214" t="n">
+        <v>10.5737435405901</v>
+      </c>
+      <c r="V214" t="n">
+        <v>0.04146566094349058</v>
+      </c>
+      <c r="W214" t="n">
+        <v>0.9998373920656263</v>
+      </c>
+      <c r="X214" t="n">
+        <v>0.9755676143862061</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>0.996619694329032</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>0.9517321702391932</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -14230,6 +18094,24 @@
       <c r="T215" t="n">
         <v>0.5553348102272287</v>
       </c>
+      <c r="U215" t="n">
+        <v>8.189096099349889</v>
+      </c>
+      <c r="V215" t="n">
+        <v>0.03211410235039172</v>
+      </c>
+      <c r="W215" t="n">
+        <v>0.9998740642804514</v>
+      </c>
+      <c r="X215" t="n">
+        <v>0.9825787509367711</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>0.9963404127323594</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>0.9654610017924651</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -14294,6 +18176,24 @@
       <c r="T216" t="n">
         <v>0.7794627317747885</v>
       </c>
+      <c r="U216" t="n">
+        <v>5.072795465910986</v>
+      </c>
+      <c r="V216" t="n">
+        <v>0.0198933155525921</v>
+      </c>
+      <c r="W216" t="n">
+        <v>0.9999219881975532</v>
+      </c>
+      <c r="X216" t="n">
+        <v>0.9839436989961809</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>0.9975449690967492</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>0.9681452027942871</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -14358,6 +18258,24 @@
       <c r="T217" t="n">
         <v>0.6808633170661057</v>
       </c>
+      <c r="U217" t="n">
+        <v>6.980513418903151</v>
+      </c>
+      <c r="V217" t="n">
+        <v>0.02737456242707118</v>
+      </c>
+      <c r="W217" t="n">
+        <v>0.9998926504256929</v>
+      </c>
+      <c r="X217" t="n">
+        <v>0.9823734494206695</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>0.9969182999488831</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>0.9650575941266648</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -14422,6 +18340,24 @@
       <c r="T218" t="n">
         <v>0.4633155920328848</v>
       </c>
+      <c r="U218" t="n">
+        <v>4.729228538089704</v>
+      </c>
+      <c r="V218" t="n">
+        <v>0.02079713285547594</v>
+      </c>
+      <c r="W218" t="n">
+        <v>0.999542240745354</v>
+      </c>
+      <c r="X218" t="n">
+        <v>0.9942319369317838</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>0.9933449255078387</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>0.9884971444151265</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -14486,6 +18422,24 @@
       <c r="T219" t="n">
         <v>0.5630585898709036</v>
       </c>
+      <c r="U219" t="n">
+        <v>7.15394232372062</v>
+      </c>
+      <c r="V219" t="n">
+        <v>0.02805467577929655</v>
+      </c>
+      <c r="W219" t="n">
+        <v>0.9998899833555237</v>
+      </c>
+      <c r="X219" t="n">
+        <v>0.9847938047950093</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>0.9963413998084154</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>0.9698188379626309</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -14550,6 +18504,24 @@
       <c r="T220" t="n">
         <v>0.53180059351749</v>
       </c>
+      <c r="U220" t="n">
+        <v>3.121720286714452</v>
+      </c>
+      <c r="V220" t="n">
+        <v>0.01224204034005668</v>
+      </c>
+      <c r="W220" t="n">
+        <v>0.9999519927369558</v>
+      </c>
+      <c r="X220" t="n">
+        <v>0.9931238203926797</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>0.9964847514543187</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>0.9862949226313514</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -14614,6 +18586,24 @@
       <c r="T221" t="n">
         <v>0.3095634919571715</v>
       </c>
+      <c r="U221" t="n">
+        <v>6.546941156859476</v>
+      </c>
+      <c r="V221" t="n">
+        <v>0.02567427904650775</v>
+      </c>
+      <c r="W221" t="n">
+        <v>0.9998993181011155</v>
+      </c>
+      <c r="X221" t="n">
+        <v>0.9926029480802796</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>0.9931221112596347</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>0.9852606125376622</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -14678,6 +18668,24 @@
       <c r="T222" t="n">
         <v>0.8979031180182171</v>
       </c>
+      <c r="U222" t="n">
+        <v>7.630871811968662</v>
+      </c>
+      <c r="V222" t="n">
+        <v>0.02992498749791632</v>
+      </c>
+      <c r="W222" t="n">
+        <v>0.9998826489125585</v>
+      </c>
+      <c r="X222" t="n">
+        <v>0.9817978259859187</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>0.9967361802011578</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>0.9639269711106764</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -14742,6 +18750,24 @@
       <c r="T223" t="n">
         <v>0.9090791868361587</v>
       </c>
+      <c r="U223" t="n">
+        <v>5.116152692115354</v>
+      </c>
+      <c r="V223" t="n">
+        <v>0.02006334389064844</v>
+      </c>
+      <c r="W223" t="n">
+        <v>0.9999213214300109</v>
+      </c>
+      <c r="X223" t="n">
+        <v>0.983138261227781</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>0.9976415277456575</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>0.9665608406899847</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -14806,6 +18832,24 @@
       <c r="T224" t="n">
         <v>0.553048345425141</v>
       </c>
+      <c r="U224" t="n">
+        <v>4.270686781130189</v>
+      </c>
+      <c r="V224" t="n">
+        <v>0.01674779129854976</v>
+      </c>
+      <c r="W224" t="n">
+        <v>0.9999343233970853</v>
+      </c>
+      <c r="X224" t="n">
+        <v>0.9952163551070828</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>0.9930710558725744</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>0.9904555934726271</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -14870,6 +18914,24 @@
       <c r="T225" t="n">
         <v>0.4681087731168927</v>
       </c>
+      <c r="U225" t="n">
+        <v>6.167565427571263</v>
+      </c>
+      <c r="V225" t="n">
+        <v>0.02418653108851476</v>
+      </c>
+      <c r="W225" t="n">
+        <v>0.9999051523171105</v>
+      </c>
+      <c r="X225" t="n">
+        <v>0.9866624351265808</v>
+      </c>
+      <c r="Y225" t="n">
+        <v>0.9964075559327163</v>
+      </c>
+      <c r="Z225" t="n">
+        <v>0.9735027608899143</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -14934,6 +18996,24 @@
       <c r="T226" t="n">
         <v>0.8272432859722905</v>
       </c>
+      <c r="U226" t="n">
+        <v>4.54708909818303</v>
+      </c>
+      <c r="V226" t="n">
+        <v>0.01783172195365895</v>
+      </c>
+      <c r="W226" t="n">
+        <v>0.9999300727540034</v>
+      </c>
+      <c r="X226" t="n">
+        <v>0.9928657867476326</v>
+      </c>
+      <c r="Y226" t="n">
+        <v>0.9950572329326792</v>
+      </c>
+      <c r="Z226" t="n">
+        <v>0.9857824704939954</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -14998,6 +19078,24 @@
       <c r="T227" t="n">
         <v>0.9322789803668677</v>
       </c>
+      <c r="U227" t="n">
+        <v>8.237872978829806</v>
+      </c>
+      <c r="V227" t="n">
+        <v>0.03230538423070512</v>
+      </c>
+      <c r="W227" t="n">
+        <v>0.9998733141669667</v>
+      </c>
+      <c r="X227" t="n">
+        <v>0.9807370429881169</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>0.996668581596587</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>0.9618451474890756</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -15062,6 +19160,24 @@
       <c r="T228" t="n">
         <v>0.4573506742381376</v>
       </c>
+      <c r="U228" t="n">
+        <v>5.500948074679113</v>
+      </c>
+      <c r="V228" t="n">
+        <v>0.02157234539089848</v>
+      </c>
+      <c r="W228" t="n">
+        <v>0.999915403868073</v>
+      </c>
+      <c r="X228" t="n">
+        <v>0.9872475744435103</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>0.9966506195868696</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>0.9746577732445943</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -15126,6 +19242,24 @@
       <c r="T229" t="n">
         <v>0.5574018508665284</v>
       </c>
+      <c r="U229" t="n">
+        <v>4.004638273045503</v>
+      </c>
+      <c r="V229" t="n">
+        <v>0.01843757292882141</v>
+      </c>
+      <c r="W229" t="n">
+        <v>0.9994800337225781</v>
+      </c>
+      <c r="X229" t="n">
+        <v>0.9924391145060206</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>0.9957299065511516</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>0.9849353960014943</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -15190,6 +19324,24 @@
       <c r="T230" t="n">
         <v>0.4179487925954684</v>
       </c>
+      <c r="U230" t="n">
+        <v>4.682580430071678</v>
+      </c>
+      <c r="V230" t="n">
+        <v>0.01836306051008501</v>
+      </c>
+      <c r="W230" t="n">
+        <v>0.9999279891054337</v>
+      </c>
+      <c r="X230" t="n">
+        <v>0.9873362143571709</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>0.997130446377004</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>0.9748328001811494</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -15254,6 +19406,24 @@
       <c r="T231" t="n">
         <v>0.4824652074786217</v>
       </c>
+      <c r="U231" t="n">
+        <v>5.983297216202701</v>
+      </c>
+      <c r="V231" t="n">
+        <v>0.0234639106517753</v>
+      </c>
+      <c r="W231" t="n">
+        <v>0.9999079860791653</v>
+      </c>
+      <c r="X231" t="n">
+        <v>0.984438717911468</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>0.997011363873754</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>0.9691195893231748</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -15318,6 +19488,24 @@
       <c r="T232" t="n">
         <v>0.5438218995496763</v>
       </c>
+      <c r="U232" t="n">
+        <v>15.91210201700284</v>
+      </c>
+      <c r="V232" t="n">
+        <v>0.06240040006667778</v>
+      </c>
+      <c r="W232" t="n">
+        <v>0.9997552963119827</v>
+      </c>
+      <c r="X232" t="n">
+        <v>0.9604652838537902</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>0.9968327494320561</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>0.9224935614883417</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -15382,6 +19570,24 @@
       <c r="T233" t="n">
         <v>0.7929479705141201</v>
       </c>
+      <c r="U233" t="n">
+        <v>15.65195865977663</v>
+      </c>
+      <c r="V233" t="n">
+        <v>0.06138023003833972</v>
+      </c>
+      <c r="W233" t="n">
+        <v>0.9997592969172366</v>
+      </c>
+      <c r="X233" t="n">
+        <v>0.833717877643113</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>0.9992099525996155</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>0.6950854995017368</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -15446,6 +19652,24 @@
       <c r="T234" t="n">
         <v>0.6168306088384395</v>
       </c>
+      <c r="U234" t="n">
+        <v>6.404560184742876</v>
+      </c>
+      <c r="V234" t="n">
+        <v>0.02511592229310932</v>
+      </c>
+      <c r="W234" t="n">
+        <v>0.9999015077017694</v>
+      </c>
+      <c r="X234" t="n">
+        <v>0.9842521263304138</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>0.9968380055076778</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>0.9687522481859409</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -15510,6 +19734,24 @@
       <c r="T235" t="n">
         <v>0.7925184513534747</v>
       </c>
+      <c r="U235" t="n">
+        <v>12.70366727787965</v>
+      </c>
+      <c r="V235" t="n">
+        <v>0.04981830305050842</v>
+      </c>
+      <c r="W235" t="n">
+        <v>0.9998046371101117</v>
+      </c>
+      <c r="X235" t="n">
+        <v>0.948524964555098</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>0.998048391492644</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>0.89969960838425</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -15574,6 +19816,24 @@
       <c r="T236" t="n">
         <v>0.6370612206189764</v>
       </c>
+      <c r="U236" t="n">
+        <v>8.324587431238541</v>
+      </c>
+      <c r="V236" t="n">
+        <v>0.03264544090681781</v>
+      </c>
+      <c r="W236" t="n">
+        <v>0.9998719806318821</v>
+      </c>
+      <c r="X236" t="n">
+        <v>0.9748645663175904</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>0.9974142887498274</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>0.9503609226615838</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -15638,6 +19898,24 @@
       <c r="T237" t="n">
         <v>0.5224742523173281</v>
       </c>
+      <c r="U237" t="n">
+        <v>4.509151525254209</v>
+      </c>
+      <c r="V237" t="n">
+        <v>0.01768294715785964</v>
+      </c>
+      <c r="W237" t="n">
+        <v>0.9999306561756027</v>
+      </c>
+      <c r="X237" t="n">
+        <v>0.9748539180372671</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>0.9986016496497292</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>0.9503401615126107</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -15702,6 +19980,24 @@
       <c r="T238" t="n">
         <v>0.9900737702402014</v>
       </c>
+      <c r="U238" t="n">
+        <v>9.842090348391398</v>
+      </c>
+      <c r="V238" t="n">
+        <v>0.0385964327387898</v>
+      </c>
+      <c r="W238" t="n">
+        <v>0.9998486437679022</v>
+      </c>
+      <c r="X238" t="n">
+        <v>0.9575987196243152</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>0.9981731752808713</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>0.9169953078261279</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -15766,6 +20062,24 @@
       <c r="T239" t="n">
         <v>0.9177634354937267</v>
       </c>
+      <c r="U239" t="n">
+        <v>5.723153858976496</v>
+      </c>
+      <c r="V239" t="n">
+        <v>0.02244374062343724</v>
+      </c>
+      <c r="W239" t="n">
+        <v>0.9999119866844188</v>
+      </c>
+      <c r="X239" t="n">
+        <v>0.9803144465257958</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>0.9977371549324864</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>0.9610164140671774</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -15830,6 +20144,24 @@
       <c r="T240" t="n">
         <v>0.9486811615761119</v>
       </c>
+      <c r="U240" t="n">
+        <v>4.817339889981668</v>
+      </c>
+      <c r="V240" t="n">
+        <v>0.02154400733455574</v>
+      </c>
+      <c r="W240" t="n">
+        <v>0.9994796534097079</v>
+      </c>
+      <c r="X240" t="n">
+        <v>0.9926945234659273</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>0.994680304751813</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>0.9854424169192445</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -15894,6 +20226,24 @@
       <c r="T241" t="n">
         <v>0.9831098702787999</v>
       </c>
+      <c r="U241" t="n">
+        <v>8.02108684780797</v>
+      </c>
+      <c r="V241" t="n">
+        <v>0.03145524254042341</v>
+      </c>
+      <c r="W241" t="n">
+        <v>0.9998766480046781</v>
+      </c>
+      <c r="X241" t="n">
+        <v>0.980406821285644</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>0.9968108407621451</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>0.9611975352234209</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -15958,6 +20308,24 @@
       <c r="T242" t="n">
         <v>0.5649047264810314</v>
       </c>
+      <c r="U242" t="n">
+        <v>7.067227871311887</v>
+      </c>
+      <c r="V242" t="n">
+        <v>0.02771461910318387</v>
+      </c>
+      <c r="W242" t="n">
+        <v>0.9998913168906083</v>
+      </c>
+      <c r="X242" t="n">
+        <v>0.9612939108990549</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>0.9985662649200535</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>0.9240859831316002</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -16022,6 +20390,24 @@
       <c r="T243" t="n">
         <v>0.9185540494712814</v>
       </c>
+      <c r="U243" t="n">
+        <v>9.359741206867813</v>
+      </c>
+      <c r="V243" t="n">
+        <v>0.036704867477913</v>
+      </c>
+      <c r="W243" t="n">
+        <v>0.9998560615568102</v>
+      </c>
+      <c r="X243" t="n">
+        <v>0.966476854536786</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>0.9978117393336814</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>0.9340775103553197</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -16086,6 +20472,24 @@
       <c r="T244" t="n">
         <v>0.8172874921962638</v>
       </c>
+      <c r="U244" t="n">
+        <v>7.370728454742457</v>
+      </c>
+      <c r="V244" t="n">
+        <v>0.02890481746957826</v>
+      </c>
+      <c r="W244" t="n">
+        <v>0.9998866495178123</v>
+      </c>
+      <c r="X244" t="n">
+        <v>0.9619218286342658</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>0.9984803917265948</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>0.9252936044030898</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -16150,6 +20554,24 @@
       <c r="T245" t="n">
         <v>0.8725527405345409</v>
       </c>
+      <c r="U245" t="n">
+        <v>11.60889731621937</v>
+      </c>
+      <c r="V245" t="n">
+        <v>0.04552508751458576</v>
+      </c>
+      <c r="W245" t="n">
+        <v>0.9998214729905542</v>
+      </c>
+      <c r="X245" t="n">
+        <v>0.9604047757919868</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>0.9976947295344263</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>0.9223773333640565</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -16214,6 +20636,24 @@
       <c r="T246" t="n">
         <v>0.7725426482534524</v>
       </c>
+      <c r="U246" t="n">
+        <v>6.243440573428905</v>
+      </c>
+      <c r="V246" t="n">
+        <v>0.02448408068011335</v>
+      </c>
+      <c r="W246" t="n">
+        <v>0.9999039854739116</v>
+      </c>
+      <c r="X246" t="n">
+        <v>0.9714692257444157</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>0.9982900556529898</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>0.9437524565684545</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -16278,6 +20718,24 @@
       <c r="T247" t="n">
         <v>0.9309140140134954</v>
       </c>
+      <c r="U247" t="n">
+        <v>6.156726121020171</v>
+      </c>
+      <c r="V247" t="n">
+        <v>0.02414402400400067</v>
+      </c>
+      <c r="W247" t="n">
+        <v>0.9999053190089962</v>
+      </c>
+      <c r="X247" t="n">
+        <v>0.9641231838996003</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>0.9986545401727277</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>0.9295335137327024</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -16342,6 +20800,24 @@
       <c r="T248" t="n">
         <v>0.6097637200121846</v>
       </c>
+      <c r="U248" t="n">
+        <v>5.419653275545924</v>
+      </c>
+      <c r="V248" t="n">
+        <v>0.02125354225704284</v>
+      </c>
+      <c r="W248" t="n">
+        <v>0.9999166540572149</v>
+      </c>
+      <c r="X248" t="n">
+        <v>0.9620809727519731</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>0.9988784883705625</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>0.9255997981313829</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -16406,6 +20882,24 @@
       <c r="T249" t="n">
         <v>0.7998331943286072</v>
       </c>
+      <c r="U249" t="n">
+        <v>8.714802467077845</v>
+      </c>
+      <c r="V249" t="n">
+        <v>0.03417569594932488</v>
+      </c>
+      <c r="W249" t="n">
+        <v>0.9998659797240016</v>
+      </c>
+      <c r="X249" t="n">
+        <v>0.9738641975993099</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>0.9973953243295034</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>0.9484114753657477</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -16469,6 +20963,24 @@
       </c>
       <c r="T250" t="n">
         <v>0.6354861331063454</v>
+      </c>
+      <c r="U250" t="n">
+        <v>9.49523253875646</v>
+      </c>
+      <c r="V250" t="n">
+        <v>0.03723620603433906</v>
+      </c>
+      <c r="W250" t="n">
+        <v>0.9998539779082405</v>
+      </c>
+      <c r="X250" t="n">
+        <v>0.9642427461429657</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>0.9979166143989713</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>0.9297640734893278</v>
       </c>
     </row>
   </sheetData>

--- a/train/test_features.xlsx
+++ b/train/test_features.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z250"/>
+  <dimension ref="A1:AB250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,6 +564,16 @@
           <t>Haralick ASM</t>
         </is>
       </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Circularity</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Compactness</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -646,6 +656,12 @@
       <c r="Z2" t="n">
         <v>0.9849374361189633</v>
       </c>
+      <c r="AA2" t="n">
+        <v>0.4344839763380887</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>28.92251797240227</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -728,6 +744,12 @@
       <c r="Z3" t="n">
         <v>0.9686557823523806</v>
       </c>
+      <c r="AA3" t="n">
+        <v>0.4350774479717505</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>28.88306592985051</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -810,6 +832,12 @@
       <c r="Z4" t="n">
         <v>0.9504890222502843</v>
       </c>
+      <c r="AA4" t="n">
+        <v>0.4930365080222944</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>25.48770813091784</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -892,6 +920,12 @@
       <c r="Z5" t="n">
         <v>0.9497440021145382</v>
       </c>
+      <c r="AA5" t="n">
+        <v>0.4575814798017535</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>27.46258572310124</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -974,6 +1008,12 @@
       <c r="Z6" t="n">
         <v>0.947981471350576</v>
       </c>
+      <c r="AA6" t="n">
+        <v>0.4724268323493509</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26.59961237143824</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1056,6 +1096,12 @@
       <c r="Z7" t="n">
         <v>0.9450374345827655</v>
       </c>
+      <c r="AA7" t="n">
+        <v>0.4856058510908101</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>25.87771664227583</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1138,6 +1184,12 @@
       <c r="Z8" t="n">
         <v>0.9512624921067999</v>
       </c>
+      <c r="AA8" t="n">
+        <v>0.4228491271330106</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29.71833168856541</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1220,6 +1272,12 @@
       <c r="Z9" t="n">
         <v>0.9536042869822152</v>
       </c>
+      <c r="AA9" t="n">
+        <v>0.5657703955288395</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>22.21107840507116</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1302,6 +1360,12 @@
       <c r="Z10" t="n">
         <v>0.9387625566813294</v>
       </c>
+      <c r="AA10" t="n">
+        <v>0.4288111044737312</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29.30514271495268</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1384,6 +1448,12 @@
       <c r="Z11" t="n">
         <v>0.9575449176160689</v>
       </c>
+      <c r="AA11" t="n">
+        <v>0.5279108157425987</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23.80396506308055</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1466,6 +1536,12 @@
       <c r="Z12" t="n">
         <v>0.969789291304788</v>
       </c>
+      <c r="AA12" t="n">
+        <v>0.509660965063761</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>24.65633327988354</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1548,6 +1624,12 @@
       <c r="Z13" t="n">
         <v>0.9366458290475207</v>
       </c>
+      <c r="AA13" t="n">
+        <v>0.3091011345422753</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>40.6545599807253</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1630,6 +1712,12 @@
       <c r="Z14" t="n">
         <v>0.972831685513221</v>
       </c>
+      <c r="AA14" t="n">
+        <v>0.459411255397373</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>27.35320579703635</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1712,6 +1800,12 @@
       <c r="Z15" t="n">
         <v>0.9574634013969545</v>
       </c>
+      <c r="AA15" t="n">
+        <v>0.5497854141565041</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>22.85686431612385</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1794,6 +1888,12 @@
       <c r="Z16" t="n">
         <v>0.957458593912239</v>
       </c>
+      <c r="AA16" t="n">
+        <v>0.5339018303214974</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>23.53685621716662</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1876,6 +1976,12 @@
       <c r="Z17" t="n">
         <v>0.9150885720310014</v>
       </c>
+      <c r="AA17" t="n">
+        <v>0.5557507635408345</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>22.61152199647107</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1958,6 +2064,12 @@
       <c r="Z18" t="n">
         <v>0.9439401858040405</v>
       </c>
+      <c r="AA18" t="n">
+        <v>0.5141026165802137</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>24.44331191688942</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2040,6 +2152,12 @@
       <c r="Z19" t="n">
         <v>0.9635215313873089</v>
       </c>
+      <c r="AA19" t="n">
+        <v>0.4494677682784736</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>27.95833539408218</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2122,6 +2240,12 @@
       <c r="Z20" t="n">
         <v>0.9712076835774234</v>
       </c>
+      <c r="AA20" t="n">
+        <v>0.5369461307790219</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>23.40341031255296</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2204,6 +2328,12 @@
       <c r="Z21" t="n">
         <v>0.9435827930912862</v>
       </c>
+      <c r="AA21" t="n">
+        <v>0.4820513187494342</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>26.06853280053167</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2286,6 +2416,12 @@
       <c r="Z22" t="n">
         <v>0.9315133198601946</v>
       </c>
+      <c r="AA22" t="n">
+        <v>0.5488052494075345</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>22.89768661638215</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2368,6 +2504,12 @@
       <c r="Z23" t="n">
         <v>0.9281149184540216</v>
       </c>
+      <c r="AA23" t="n">
+        <v>0.4446449975117689</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>28.26158100210396</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2450,6 +2592,12 @@
       <c r="Z24" t="n">
         <v>0.9693415105538093</v>
       </c>
+      <c r="AA24" t="n">
+        <v>0.372290917980554</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>33.75416913881191</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2532,6 +2680,12 @@
       <c r="Z25" t="n">
         <v>0.9643002540523262</v>
       </c>
+      <c r="AA25" t="n">
+        <v>0.4317484387264455</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29.10576967325454</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2614,6 +2768,12 @@
       <c r="Z26" t="n">
         <v>0.9445787849445013</v>
       </c>
+      <c r="AA26" t="n">
+        <v>0.3661830299529952</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>34.31718454012531</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2696,6 +2856,12 @@
       <c r="Z27" t="n">
         <v>0.9637222192544985</v>
       </c>
+      <c r="AA27" t="n">
+        <v>0.4271676379818704</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>29.41789006706662</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2778,6 +2944,12 @@
       <c r="Z28" t="n">
         <v>0.9469686681907395</v>
       </c>
+      <c r="AA28" t="n">
+        <v>0.2157587494533744</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>58.24269303653327</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2860,6 +3032,12 @@
       <c r="Z29" t="n">
         <v>0.9411088406253031</v>
       </c>
+      <c r="AA29" t="n">
+        <v>0.4261511099296196</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>29.48806261805713</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2942,6 +3120,12 @@
       <c r="Z30" t="n">
         <v>0.9366654483202647</v>
       </c>
+      <c r="AA30" t="n">
+        <v>0.4142011746863366</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>30.33880969525339</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3024,6 +3208,12 @@
       <c r="Z31" t="n">
         <v>0.9250355403780659</v>
       </c>
+      <c r="AA31" t="n">
+        <v>0.4019719230178807</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>31.26181182012603</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3106,6 +3296,12 @@
       <c r="Z32" t="n">
         <v>0.9214191642321216</v>
       </c>
+      <c r="AA32" t="n">
+        <v>0.3988550955195679</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>31.50610523851929</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3188,6 +3384,12 @@
       <c r="Z33" t="n">
         <v>0.937584154648323</v>
       </c>
+      <c r="AA33" t="n">
+        <v>0.4725771804936709</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>26.59114983341323</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3270,6 +3472,12 @@
       <c r="Z34" t="n">
         <v>0.9186057365176555</v>
       </c>
+      <c r="AA34" t="n">
+        <v>0.4639245399321369</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>27.08710044999427</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3352,6 +3560,12 @@
       <c r="Z35" t="n">
         <v>0.9411175338138777</v>
       </c>
+      <c r="AA35" t="n">
+        <v>0.3387513741289224</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>37.09614653718467</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3434,6 +3648,12 @@
       <c r="Z36" t="n">
         <v>0.9674786199995273</v>
       </c>
+      <c r="AA36" t="n">
+        <v>0.3980297962986369</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>31.57143191594324</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3516,6 +3736,12 @@
       <c r="Z37" t="n">
         <v>0.9603189034321052</v>
       </c>
+      <c r="AA37" t="n">
+        <v>0.37303509359215</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>33.68683223165686</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3598,6 +3824,12 @@
       <c r="Z38" t="n">
         <v>0.9359151623709665</v>
       </c>
+      <c r="AA38" t="n">
+        <v>0.4937739423771939</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>25.44964311778065</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3680,6 +3912,12 @@
       <c r="Z39" t="n">
         <v>0.940074934596982</v>
       </c>
+      <c r="AA39" t="n">
+        <v>0.4148286959528519</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>30.2929154539189</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3762,6 +4000,12 @@
       <c r="Z40" t="n">
         <v>0.9250190045927948</v>
       </c>
+      <c r="AA40" t="n">
+        <v>0.3173006058745093</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>39.6039918667193</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3844,6 +4088,12 @@
       <c r="Z41" t="n">
         <v>0.9252579754831131</v>
       </c>
+      <c r="AA41" t="n">
+        <v>0.4415165632939341</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>28.4618328259483</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3926,6 +4176,12 @@
       <c r="Z42" t="n">
         <v>0.9606228261261859</v>
       </c>
+      <c r="AA42" t="n">
+        <v>0.322763730865507</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>38.93365150000537</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4008,6 +4264,12 @@
       <c r="Z43" t="n">
         <v>0.9310752327522758</v>
       </c>
+      <c r="AA43" t="n">
+        <v>0.5542056629319202</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>22.67456190880325</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -4090,6 +4352,12 @@
       <c r="Z44" t="n">
         <v>0.9575531345951739</v>
       </c>
+      <c r="AA44" t="n">
+        <v>0.4961404773901956</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>25.32825114463741</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -4172,6 +4440,12 @@
       <c r="Z45" t="n">
         <v>0.9429437331273867</v>
       </c>
+      <c r="AA45" t="n">
+        <v>0.4552703097228051</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>27.6019989575211</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4254,6 +4528,12 @@
       <c r="Z46" t="n">
         <v>0.9525029383659326</v>
       </c>
+      <c r="AA46" t="n">
+        <v>0.3759520277919286</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>33.42546305220105</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4336,6 +4616,12 @@
       <c r="Z47" t="n">
         <v>0.9780732132253417</v>
       </c>
+      <c r="AA47" t="n">
+        <v>0.4377096378135336</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>28.70937609948746</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -4418,6 +4704,12 @@
       <c r="Z48" t="n">
         <v>0.9572838714623279</v>
       </c>
+      <c r="AA48" t="n">
+        <v>0.4221440719160648</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>29.76796655540328</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -4500,6 +4792,12 @@
       <c r="Z49" t="n">
         <v>0.9598114267651634</v>
       </c>
+      <c r="AA49" t="n">
+        <v>0.4151937860519092</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>30.26627814894146</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -4582,6 +4880,12 @@
       <c r="Z50" t="n">
         <v>0.96339651780078</v>
       </c>
+      <c r="AA50" t="n">
+        <v>0.3299641875962828</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>38.08404392580432</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -4664,6 +4968,12 @@
       <c r="Z51" t="n">
         <v>0.9830007446084357</v>
       </c>
+      <c r="AA51" t="n">
+        <v>0.5076241543030595</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>24.75526530374056</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -4746,6 +5056,12 @@
       <c r="Z52" t="n">
         <v>0.9825992345505797</v>
       </c>
+      <c r="AA52" t="n">
+        <v>0.4505366406942224</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>27.89200584217949</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -4828,6 +5144,12 @@
       <c r="Z53" t="n">
         <v>0.9841759729901467</v>
       </c>
+      <c r="AA53" t="n">
+        <v>0.5018489115043975</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>25.04014719627236</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -4910,6 +5232,12 @@
       <c r="Z54" t="n">
         <v>0.9471919183427138</v>
       </c>
+      <c r="AA54" t="n">
+        <v>0.478827125757491</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>26.24406584000338</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -4992,6 +5320,12 @@
       <c r="Z55" t="n">
         <v>0.9576796689665675</v>
       </c>
+      <c r="AA55" t="n">
+        <v>0.4876581707608023</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>25.76880972742486</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -5074,6 +5408,12 @@
       <c r="Z56" t="n">
         <v>0.9439320948059086</v>
       </c>
+      <c r="AA56" t="n">
+        <v>0.5291862260009023</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>23.74659429313594</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -5156,6 +5496,12 @@
       <c r="Z57" t="n">
         <v>0.969887190972187</v>
       </c>
+      <c r="AA57" t="n">
+        <v>0.4065986804135474</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>30.90607820364308</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -5238,6 +5584,12 @@
       <c r="Z58" t="n">
         <v>0.9679900232457513</v>
       </c>
+      <c r="AA58" t="n">
+        <v>0.3328444021728361</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>37.75448988273455</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -5320,6 +5672,12 @@
       <c r="Z59" t="n">
         <v>0.9670788451583208</v>
       </c>
+      <c r="AA59" t="n">
+        <v>0.4551058813855588</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>27.61197147376159</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -5402,6 +5760,12 @@
       <c r="Z60" t="n">
         <v>0.9719678954757791</v>
       </c>
+      <c r="AA60" t="n">
+        <v>0.5428984348605914</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>23.14681680301038</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -5484,6 +5848,12 @@
       <c r="Z61" t="n">
         <v>0.9429305524507462</v>
       </c>
+      <c r="AA61" t="n">
+        <v>0.4001873137772545</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>31.40122183221843</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -5566,6 +5936,12 @@
       <c r="Z62" t="n">
         <v>0.9354178636806022</v>
       </c>
+      <c r="AA62" t="n">
+        <v>0.3455220439305273</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>36.36922979329748</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -5648,6 +6024,12 @@
       <c r="Z63" t="n">
         <v>0.9842578655145678</v>
       </c>
+      <c r="AA63" t="n">
+        <v>0.3717022218218186</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>33.80762846336459</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5730,6 +6112,12 @@
       <c r="Z64" t="n">
         <v>0.9695203269588696</v>
       </c>
+      <c r="AA64" t="n">
+        <v>0.4081615633777819</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>30.78773638155664</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -5812,6 +6200,12 @@
       <c r="Z65" t="n">
         <v>0.9271070195616413</v>
       </c>
+      <c r="AA65" t="n">
+        <v>0.3845903134806708</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>32.67469349560399</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5894,6 +6288,12 @@
       <c r="Z66" t="n">
         <v>0.9642943165156945</v>
       </c>
+      <c r="AA66" t="n">
+        <v>0.3403306318753228</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>36.92400694323264</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -5976,6 +6376,12 @@
       <c r="Z67" t="n">
         <v>0.9565656581509345</v>
       </c>
+      <c r="AA67" t="n">
+        <v>0.3764471259136544</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>33.38150233943217</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -6058,6 +6464,12 @@
       <c r="Z68" t="n">
         <v>0.9665701421196877</v>
       </c>
+      <c r="AA68" t="n">
+        <v>0.2812276976469284</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>44.68397216740655</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -6140,6 +6552,12 @@
       <c r="Z69" t="n">
         <v>0.9366632984246923</v>
       </c>
+      <c r="AA69" t="n">
+        <v>0.3947562612303785</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>31.83323951643538</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -6222,6 +6640,12 @@
       <c r="Z70" t="n">
         <v>0.9586019626742016</v>
       </c>
+      <c r="AA70" t="n">
+        <v>0.4285391241812209</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>29.32374176656294</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -6304,6 +6728,12 @@
       <c r="Z71" t="n">
         <v>0.9652784085593625</v>
       </c>
+      <c r="AA71" t="n">
+        <v>0.4244848739365509</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>29.60381249353424</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -6386,6 +6816,12 @@
       <c r="Z72" t="n">
         <v>0.9481987185995512</v>
       </c>
+      <c r="AA72" t="n">
+        <v>0.4292164908678743</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>29.27746459356679</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -6468,6 +6904,12 @@
       <c r="Z73" t="n">
         <v>0.9338339055213535</v>
       </c>
+      <c r="AA73" t="n">
+        <v>0.335254610857886</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>37.48306572787463</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -6550,6 +6992,12 @@
       <c r="Z74" t="n">
         <v>0.9754265309199031</v>
       </c>
+      <c r="AA74" t="n">
+        <v>0.338319048544146</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>37.14355035116928</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -6632,6 +7080,12 @@
       <c r="Z75" t="n">
         <v>0.97313473346808</v>
       </c>
+      <c r="AA75" t="n">
+        <v>0.2660904894119563</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>47.22592920224274</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -6714,6 +7168,12 @@
       <c r="Z76" t="n">
         <v>0.9686168926232421</v>
       </c>
+      <c r="AA76" t="n">
+        <v>0.3168725020904337</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>39.65749798880559</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -6796,6 +7256,12 @@
       <c r="Z77" t="n">
         <v>0.9622042497735979</v>
       </c>
+      <c r="AA77" t="n">
+        <v>0.4582716136883617</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>27.42122845711469</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -6878,6 +7344,12 @@
       <c r="Z78" t="n">
         <v>0.9515479563271174</v>
       </c>
+      <c r="AA78" t="n">
+        <v>0.3672191383527642</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>34.22035864124123</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -6960,6 +7432,12 @@
       <c r="Z79" t="n">
         <v>0.9705618607422249</v>
       </c>
+      <c r="AA79" t="n">
+        <v>0.3394006221451464</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>37.02518438220511</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -7042,6 +7520,12 @@
       <c r="Z80" t="n">
         <v>0.974143119989226</v>
       </c>
+      <c r="AA80" t="n">
+        <v>0.3723427662080026</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>33.749468916335</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -7124,6 +7608,12 @@
       <c r="Z81" t="n">
         <v>0.9581725103470842</v>
       </c>
+      <c r="AA81" t="n">
+        <v>0.4770787522331572</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>26.34024373447207</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -7206,6 +7696,12 @@
       <c r="Z82" t="n">
         <v>0.9589906771174683</v>
       </c>
+      <c r="AA82" t="n">
+        <v>0.5113683539436799</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>24.57400916080776</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -7288,6 +7784,12 @@
       <c r="Z83" t="n">
         <v>0.9744367901120743</v>
       </c>
+      <c r="AA83" t="n">
+        <v>0.4201738125521217</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>29.90755311006047</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -7370,6 +7872,12 @@
       <c r="Z84" t="n">
         <v>0.9559654945076106</v>
       </c>
+      <c r="AA84" t="n">
+        <v>0.3799556179037763</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>33.07325914454989</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -7452,6 +7960,12 @@
       <c r="Z85" t="n">
         <v>0.9413197129026248</v>
       </c>
+      <c r="AA85" t="n">
+        <v>0.4015080055362453</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>31.29793289569857</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -7534,6 +8048,12 @@
       <c r="Z86" t="n">
         <v>0.9460839128969889</v>
       </c>
+      <c r="AA86" t="n">
+        <v>0.3996045459325919</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>31.44701616202073</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -7616,6 +8136,12 @@
       <c r="Z87" t="n">
         <v>0.9528495304890231</v>
       </c>
+      <c r="AA87" t="n">
+        <v>0.5141334343382085</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>24.44184675625031</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -7698,6 +8224,12 @@
       <c r="Z88" t="n">
         <v>0.9476866336353087</v>
       </c>
+      <c r="AA88" t="n">
+        <v>0.493634602194145</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>25.45682688876185</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -7780,6 +8312,12 @@
       <c r="Z89" t="n">
         <v>0.9667554917430428</v>
       </c>
+      <c r="AA89" t="n">
+        <v>0.4749570471849046</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>26.45790959170037</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -7862,6 +8400,12 @@
       <c r="Z90" t="n">
         <v>0.972585156406168</v>
       </c>
+      <c r="AA90" t="n">
+        <v>0.2598507712617302</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>48.35995118791437</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -7944,6 +8488,12 @@
       <c r="Z91" t="n">
         <v>0.9702358876057432</v>
       </c>
+      <c r="AA91" t="n">
+        <v>0.2249375220584676</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>55.86604893376933</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -8026,6 +8576,12 @@
       <c r="Z92" t="n">
         <v>0.9751042184492029</v>
       </c>
+      <c r="AA92" t="n">
+        <v>0.3447908699722633</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>36.446355483166</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -8108,6 +8664,12 @@
       <c r="Z93" t="n">
         <v>0.972086546314739</v>
       </c>
+      <c r="AA93" t="n">
+        <v>0.3114999622714738</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>40.34148358389692</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -8190,6 +8752,12 @@
       <c r="Z94" t="n">
         <v>0.9522508604937726</v>
       </c>
+      <c r="AA94" t="n">
+        <v>0.4586131530545321</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>27.4008072613324</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -8272,6 +8840,12 @@
       <c r="Z95" t="n">
         <v>0.9535507625668207</v>
       </c>
+      <c r="AA95" t="n">
+        <v>0.4987572889376245</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>25.1953623397186</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -8354,6 +8928,12 @@
       <c r="Z96" t="n">
         <v>0.9535507625668207</v>
       </c>
+      <c r="AA96" t="n">
+        <v>0.4987572889376245</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>25.1953623397186</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -8436,6 +9016,12 @@
       <c r="Z97" t="n">
         <v>0.9626616344086603</v>
       </c>
+      <c r="AA97" t="n">
+        <v>0.4603688869496261</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>27.29630731047686</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -8518,6 +9104,12 @@
       <c r="Z98" t="n">
         <v>0.9789580190597484</v>
       </c>
+      <c r="AA98" t="n">
+        <v>0.3771728700449922</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>33.31727070629485</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -8600,6 +9192,12 @@
       <c r="Z99" t="n">
         <v>0.927868441102053</v>
       </c>
+      <c r="AA99" t="n">
+        <v>0.2620316531676232</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>47.95745270637358</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -8682,6 +9280,12 @@
       <c r="Z100" t="n">
         <v>0.9238385030824686</v>
       </c>
+      <c r="AA100" t="n">
+        <v>0.2545735240105043</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>49.36244121694547</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -8764,6 +9368,12 @@
       <c r="Z101" t="n">
         <v>0.9751969156969087</v>
       </c>
+      <c r="AA101" t="n">
+        <v>0.4045009417108644</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>31.06635688215916</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -8846,6 +9456,12 @@
       <c r="Z102" t="n">
         <v>0.9533553524833771</v>
       </c>
+      <c r="AA102" t="n">
+        <v>0.6151305890354041</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>20.42878510409423</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -8928,6 +9544,12 @@
       <c r="Z103" t="n">
         <v>0.9766195323529743</v>
       </c>
+      <c r="AA103" t="n">
+        <v>0.293638122380947</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>42.79543307410331</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -9010,6 +9632,12 @@
       <c r="Z104" t="n">
         <v>0.9369421593745647</v>
       </c>
+      <c r="AA104" t="n">
+        <v>0.359890398913631</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>34.91721549752967</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -9092,6 +9720,12 @@
       <c r="Z105" t="n">
         <v>0.9196549075529746</v>
       </c>
+      <c r="AA105" t="n">
+        <v>0.3845270613946636</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>32.68006826042743</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -9174,6 +9808,12 @@
       <c r="Z106" t="n">
         <v>0.9561186719379711</v>
       </c>
+      <c r="AA106" t="n">
+        <v>0.3508485784208583</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>35.81707718731372</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -9256,6 +9896,12 @@
       <c r="Z107" t="n">
         <v>0.9516580832557601</v>
       </c>
+      <c r="AA107" t="n">
+        <v>0.4412226600573669</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>28.48079156389048</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -9338,6 +9984,12 @@
       <c r="Z108" t="n">
         <v>0.948053777389539</v>
       </c>
+      <c r="AA108" t="n">
+        <v>0.4140587809201933</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>30.34924313507372</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -9420,6 +10072,12 @@
       <c r="Z109" t="n">
         <v>0.9539031114557149</v>
       </c>
+      <c r="AA109" t="n">
+        <v>0.3084568747260532</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>40.73947330731281</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -9502,6 +10160,12 @@
       <c r="Z110" t="n">
         <v>0.9539546696271556</v>
       </c>
+      <c r="AA110" t="n">
+        <v>0.4133933752787894</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>30.39809383951667</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -9584,6 +10248,12 @@
       <c r="Z111" t="n">
         <v>0.9294004530756441</v>
       </c>
+      <c r="AA111" t="n">
+        <v>0.3183600649205579</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>39.47219516208771</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -9666,6 +10336,12 @@
       <c r="Z112" t="n">
         <v>0.982692313030762</v>
       </c>
+      <c r="AA112" t="n">
+        <v>0.3467514307393604</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>36.24028482756233</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -9748,6 +10424,12 @@
       <c r="Z113" t="n">
         <v>0.9618551900023297</v>
       </c>
+      <c r="AA113" t="n">
+        <v>0.3385654694359624</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>37.11651585524738</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -9830,6 +10512,12 @@
       <c r="Z114" t="n">
         <v>0.9447039650572735</v>
       </c>
+      <c r="AA114" t="n">
+        <v>0.4716199294180905</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>26.64512212167162</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -9912,6 +10600,12 @@
       <c r="Z115" t="n">
         <v>0.9600994273422169</v>
       </c>
+      <c r="AA115" t="n">
+        <v>0.3618397437647738</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>34.72910544212735</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -9994,6 +10688,12 @@
       <c r="Z116" t="n">
         <v>0.9292190717697686</v>
       </c>
+      <c r="AA116" t="n">
+        <v>0.3742739258378903</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>33.57533011744467</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -10076,6 +10776,12 @@
       <c r="Z117" t="n">
         <v>0.8712695270300613</v>
       </c>
+      <c r="AA117" t="n">
+        <v>0.3618238289777853</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>34.7306329985544</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -10158,6 +10864,12 @@
       <c r="Z118" t="n">
         <v>0.9277291720366116</v>
       </c>
+      <c r="AA118" t="n">
+        <v>0.4435823355900625</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>28.32928546995255</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -10240,6 +10952,12 @@
       <c r="Z119" t="n">
         <v>0.9325902711067261</v>
       </c>
+      <c r="AA119" t="n">
+        <v>0.5318121581554582</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>23.62934058887348</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -10322,6 +11040,12 @@
       <c r="Z120" t="n">
         <v>0.9575261297681447</v>
       </c>
+      <c r="AA120" t="n">
+        <v>0.4181058005690587</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>30.05548020920982</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -10404,6 +11128,12 @@
       <c r="Z121" t="n">
         <v>0.8811123615507361</v>
       </c>
+      <c r="AA121" t="n">
+        <v>0.3360069679193938</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>37.39913696484346</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -10486,6 +11216,12 @@
       <c r="Z122" t="n">
         <v>0.9470246961610345</v>
       </c>
+      <c r="AA122" t="n">
+        <v>0.179759545749314</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>69.90655523731557</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -10568,6 +11304,12 @@
       <c r="Z123" t="n">
         <v>0.9784836674904226</v>
       </c>
+      <c r="AA123" t="n">
+        <v>0.4448135614799807</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>28.25087115722917</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -10650,6 +11392,12 @@
       <c r="Z124" t="n">
         <v>0.9678492777052625</v>
       </c>
+      <c r="AA124" t="n">
+        <v>0.3120516289892299</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>40.27016508474271</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -10732,6 +11480,12 @@
       <c r="Z125" t="n">
         <v>0.9755645870707677</v>
       </c>
+      <c r="AA125" t="n">
+        <v>0.3534568218318045</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>35.55277430842455</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -10814,6 +11568,12 @@
       <c r="Z126" t="n">
         <v>0.9731598853578761</v>
       </c>
+      <c r="AA126" t="n">
+        <v>0.3023852650221385</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>41.55748334310918</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -10896,6 +11656,12 @@
       <c r="Z127" t="n">
         <v>0.9872260670781389</v>
       </c>
+      <c r="AA127" t="n">
+        <v>0.4631998657458886</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>27.12947810147484</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -10978,6 +11744,12 @@
       <c r="Z128" t="n">
         <v>0.9730363014910723</v>
       </c>
+      <c r="AA128" t="n">
+        <v>0.4224284481353291</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>29.74792694438375</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -11060,6 +11832,12 @@
       <c r="Z129" t="n">
         <v>0.932071514505425</v>
       </c>
+      <c r="AA129" t="n">
+        <v>0.4539841754636201</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>27.68019524364716</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -11142,6 +11920,12 @@
       <c r="Z130" t="n">
         <v>0.9682534558720037</v>
       </c>
+      <c r="AA130" t="n">
+        <v>0.4304922421381486</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>29.19070167663212</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -11224,6 +12008,12 @@
       <c r="Z131" t="n">
         <v>0.9303869560912262</v>
       </c>
+      <c r="AA131" t="n">
+        <v>0.3909067631831025</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>32.14672090099661</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -11306,6 +12096,12 @@
       <c r="Z132" t="n">
         <v>0.9545523793574838</v>
       </c>
+      <c r="AA132" t="n">
+        <v>0.4411228580186306</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>28.48723521334376</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -11388,6 +12184,12 @@
       <c r="Z133" t="n">
         <v>0.9618805825766304</v>
       </c>
+      <c r="AA133" t="n">
+        <v>0.3434495500806383</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>36.58869435528077</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -11470,6 +12272,12 @@
       <c r="Z134" t="n">
         <v>0.9086466993993221</v>
       </c>
+      <c r="AA134" t="n">
+        <v>0.4450414081050553</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>28.23640763646153</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -11552,6 +12360,12 @@
       <c r="Z135" t="n">
         <v>0.9723900521552319</v>
       </c>
+      <c r="AA135" t="n">
+        <v>0.3538881666886975</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>35.50943997913711</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -11634,6 +12448,12 @@
       <c r="Z136" t="n">
         <v>0.9167975378276497</v>
       </c>
+      <c r="AA136" t="n">
+        <v>0.5181240115797974</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>24.25359630804101</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -11716,6 +12536,12 @@
       <c r="Z137" t="n">
         <v>0.9258247301271645</v>
       </c>
+      <c r="AA137" t="n">
+        <v>0.4574418354559201</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>27.47096929128619</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -11798,6 +12624,12 @@
       <c r="Z138" t="n">
         <v>0.922735007831923</v>
       </c>
+      <c r="AA138" t="n">
+        <v>0.3995602408541728</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>31.45050315190272</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -11880,6 +12712,12 @@
       <c r="Z139" t="n">
         <v>0.9846351088166061</v>
       </c>
+      <c r="AA139" t="n">
+        <v>0.5767543079856303</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>21.78808279429836</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -11962,6 +12800,12 @@
       <c r="Z140" t="n">
         <v>0.9559360832310261</v>
       </c>
+      <c r="AA140" t="n">
+        <v>0.2283817836132177</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>55.02352427390311</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -12044,6 +12888,12 @@
       <c r="Z141" t="n">
         <v>0.9364788298016712</v>
       </c>
+      <c r="AA141" t="n">
+        <v>0.2636374490998286</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>47.66534745828469</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -12126,6 +12976,12 @@
       <c r="Z142" t="n">
         <v>0.950471490273008</v>
       </c>
+      <c r="AA142" t="n">
+        <v>0.4126210889481009</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>30.45498873165874</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -12208,6 +13064,12 @@
       <c r="Z143" t="n">
         <v>0.9430049774738045</v>
       </c>
+      <c r="AA143" t="n">
+        <v>0.3952804888230214</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>31.79102174199523</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -12290,6 +13152,12 @@
       <c r="Z144" t="n">
         <v>0.9742038500806701</v>
       </c>
+      <c r="AA144" t="n">
+        <v>0.3804042226889087</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>33.03425636427764</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -12372,6 +13240,12 @@
       <c r="Z145" t="n">
         <v>0.9477046498078693</v>
       </c>
+      <c r="AA145" t="n">
+        <v>0.4253260241314242</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>29.54526622259119</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -12454,6 +13328,12 @@
       <c r="Z146" t="n">
         <v>0.9665377037391705</v>
       </c>
+      <c r="AA146" t="n">
+        <v>0.3631932155319934</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>34.59968434694566</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -12536,6 +13416,12 @@
       <c r="Z147" t="n">
         <v>0.9478880591925659</v>
       </c>
+      <c r="AA147" t="n">
+        <v>0.3460044892788614</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>36.3185189895942</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -12618,6 +13504,12 @@
       <c r="Z148" t="n">
         <v>0.9658982548783621</v>
       </c>
+      <c r="AA148" t="n">
+        <v>0.499847111826954</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>25.14042857710784</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -12700,6 +13592,12 @@
       <c r="Z149" t="n">
         <v>0.9837002440606071</v>
       </c>
+      <c r="AA149" t="n">
+        <v>0.52418182776984</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>23.97330458368516</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -12782,6 +13680,12 @@
       <c r="Z150" t="n">
         <v>0.9742835901853578</v>
       </c>
+      <c r="AA150" t="n">
+        <v>0.3940440442311044</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>31.89077667416558</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -12864,6 +13768,12 @@
       <c r="Z151" t="n">
         <v>0.9241062390753555</v>
       </c>
+      <c r="AA151" t="n">
+        <v>0.2950298120845969</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>42.59356207282499</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -12946,6 +13856,12 @@
       <c r="Z152" t="n">
         <v>0.9853457884587837</v>
       </c>
+      <c r="AA152" t="n">
+        <v>0.2870765638449819</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>43.77358585476477</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -13028,6 +13944,12 @@
       <c r="Z153" t="n">
         <v>0.7914373340607124</v>
       </c>
+      <c r="AA153" t="n">
+        <v>0.4878811297203814</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>25.75703352486971</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -13110,6 +14032,12 @@
       <c r="Z154" t="n">
         <v>0.8717753382734499</v>
       </c>
+      <c r="AA154" t="n">
+        <v>0.3343195513770427</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>37.58790224083224</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -13192,6 +14120,12 @@
       <c r="Z155" t="n">
         <v>0.8625098700333341</v>
       </c>
+      <c r="AA155" t="n">
+        <v>0.2215243270347519</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>56.7268199505141</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -13274,6 +14208,12 @@
       <c r="Z156" t="n">
         <v>0.9552711727213571</v>
       </c>
+      <c r="AA156" t="n">
+        <v>0.3468297133395389</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>36.23210506781742</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -13356,6 +14296,12 @@
       <c r="Z157" t="n">
         <v>0.9555666873968227</v>
       </c>
+      <c r="AA157" t="n">
+        <v>0.4430905018421915</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>28.36073118722535</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -13438,6 +14384,12 @@
       <c r="Z158" t="n">
         <v>0.9539474744419816</v>
       </c>
+      <c r="AA158" t="n">
+        <v>0.3127802443036989</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>40.17635654174392</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -13520,6 +14472,12 @@
       <c r="Z159" t="n">
         <v>0.9599044746520027</v>
       </c>
+      <c r="AA159" t="n">
+        <v>0.284673192691164</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>44.14314707880543</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -13602,6 +14560,12 @@
       <c r="Z160" t="n">
         <v>0.9477319837141096</v>
       </c>
+      <c r="AA160" t="n">
+        <v>0.3157478761186663</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>39.79874946058672</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -13684,6 +14648,12 @@
       <c r="Z161" t="n">
         <v>0.952720348517194</v>
       </c>
+      <c r="AA161" t="n">
+        <v>0.4475998462909948</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>28.07501101372025</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -13766,6 +14736,12 @@
       <c r="Z162" t="n">
         <v>0.9875387498235974</v>
       </c>
+      <c r="AA162" t="n">
+        <v>0.30866873151664</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>40.71151150495376</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -13848,6 +14824,12 @@
       <c r="Z163" t="n">
         <v>0.9854052086219618</v>
       </c>
+      <c r="AA163" t="n">
+        <v>0.2404366805417453</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>52.26478167160257</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -13930,6 +14912,12 @@
       <c r="Z164" t="n">
         <v>0.9874975666202884</v>
       </c>
+      <c r="AA164" t="n">
+        <v>0.4266532062357137</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>29.45336031862986</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -14012,6 +15000,12 @@
       <c r="Z165" t="n">
         <v>0.9605599478440714</v>
       </c>
+      <c r="AA165" t="n">
+        <v>0.3563221463706513</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>35.26688066502455</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -14094,6 +15088,12 @@
       <c r="Z166" t="n">
         <v>0.9859478435897635</v>
       </c>
+      <c r="AA166" t="n">
+        <v>0.3434457070637843</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>36.58910376779106</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -14176,6 +15176,12 @@
       <c r="Z167" t="n">
         <v>0.9762737320453213</v>
       </c>
+      <c r="AA167" t="n">
+        <v>0.3877197263246063</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>32.41096534726833</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -14258,6 +15264,12 @@
       <c r="Z168" t="n">
         <v>0.9769582706504133</v>
       </c>
+      <c r="AA168" t="n">
+        <v>0.2477642455331827</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>50.71906395257575</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -14340,6 +15352,12 @@
       <c r="Z169" t="n">
         <v>0.9542115723583533</v>
       </c>
+      <c r="AA169" t="n">
+        <v>0.3912537376046346</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>32.11821231739287</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -14422,6 +15440,12 @@
       <c r="Z170" t="n">
         <v>0.9673767505319139</v>
       </c>
+      <c r="AA170" t="n">
+        <v>0.3422382627778936</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>36.71819308676925</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -14504,6 +15528,12 @@
       <c r="Z171" t="n">
         <v>0.9922726875888899</v>
       </c>
+      <c r="AA171" t="n">
+        <v>0.4841557597067512</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>25.9552228026173</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -14586,6 +15616,12 @@
       <c r="Z172" t="n">
         <v>0.9846950380546735</v>
       </c>
+      <c r="AA172" t="n">
+        <v>0.3288833156066598</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>38.20920678563212</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -14668,6 +15704,12 @@
       <c r="Z173" t="n">
         <v>0.9701909504384487</v>
       </c>
+      <c r="AA173" t="n">
+        <v>0.4532459704612235</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>27.72527817858287</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -14750,6 +15792,12 @@
       <c r="Z174" t="n">
         <v>0.9563751439719435</v>
       </c>
+      <c r="AA174" t="n">
+        <v>0.3590225561152826</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>35.00161870142804</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -14832,6 +15880,12 @@
       <c r="Z175" t="n">
         <v>0.9646329299401706</v>
       </c>
+      <c r="AA175" t="n">
+        <v>0.401014264082984</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>31.33646790119852</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -14914,6 +15968,12 @@
       <c r="Z176" t="n">
         <v>0.9774625704834543</v>
       </c>
+      <c r="AA176" t="n">
+        <v>0.4573364533935766</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>27.47729930801022</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -14996,6 +16056,12 @@
       <c r="Z177" t="n">
         <v>0.9803847062622346</v>
       </c>
+      <c r="AA177" t="n">
+        <v>0.3906015435394992</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>32.17184064478334</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -15078,6 +16144,12 @@
       <c r="Z178" t="n">
         <v>0.9837382729499969</v>
       </c>
+      <c r="AA178" t="n">
+        <v>0.2824417987073414</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>44.49189415968883</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -15160,6 +16232,12 @@
       <c r="Z179" t="n">
         <v>0.9839558655578076</v>
       </c>
+      <c r="AA179" t="n">
+        <v>0.3226949744287462</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>38.94194707123936</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -15242,6 +16320,12 @@
       <c r="Z180" t="n">
         <v>0.9891490665353851</v>
       </c>
+      <c r="AA180" t="n">
+        <v>0.5072704789882798</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>24.77252498395341</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -15324,6 +16408,12 @@
       <c r="Z181" t="n">
         <v>0.981170448756184</v>
       </c>
+      <c r="AA181" t="n">
+        <v>0.3661686073336722</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>34.31853622259876</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -15406,6 +16496,12 @@
       <c r="Z182" t="n">
         <v>0.9792392999467306</v>
       </c>
+      <c r="AA182" t="n">
+        <v>0.3623324870723136</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>34.68187662634624</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -15488,6 +16584,12 @@
       <c r="Z183" t="n">
         <v>0.9770372048233591</v>
       </c>
+      <c r="AA183" t="n">
+        <v>0.4801887191180882</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>26.16964979401951</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -15570,6 +16672,12 @@
       <c r="Z184" t="n">
         <v>0.9672750942782846</v>
       </c>
+      <c r="AA184" t="n">
+        <v>0.4276416584467928</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>29.38528173331056</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -15652,6 +16760,12 @@
       <c r="Z185" t="n">
         <v>0.9735120362947342</v>
       </c>
+      <c r="AA185" t="n">
+        <v>0.378046041038544</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>33.24031797777234</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -15734,6 +16848,12 @@
       <c r="Z186" t="n">
         <v>0.9709062407014145</v>
       </c>
+      <c r="AA186" t="n">
+        <v>0.3252759725182752</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>38.63295071280787</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -15816,6 +16936,12 @@
       <c r="Z187" t="n">
         <v>0.9813115802445933</v>
       </c>
+      <c r="AA187" t="n">
+        <v>0.4099634435025584</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>30.65241746190171</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -15898,6 +17024,12 @@
       <c r="Z188" t="n">
         <v>0.973737772235866</v>
       </c>
+      <c r="AA188" t="n">
+        <v>0.4707290296319397</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>26.69555056798758</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -15980,6 +17112,12 @@
       <c r="Z189" t="n">
         <v>0.9618451610988897</v>
       </c>
+      <c r="AA189" t="n">
+        <v>0.3631228248548147</v>
+      </c>
+      <c r="AB189" t="n">
+        <v>34.60639143073287</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -16062,6 +17200,12 @@
       <c r="Z190" t="n">
         <v>0.9751124686295302</v>
       </c>
+      <c r="AA190" t="n">
+        <v>0.3516799748073821</v>
+      </c>
+      <c r="AB190" t="n">
+        <v>35.73240307823006</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -16144,6 +17288,12 @@
       <c r="Z191" t="n">
         <v>0.9730221708205604</v>
       </c>
+      <c r="AA191" t="n">
+        <v>0.4214298190781604</v>
+      </c>
+      <c r="AB191" t="n">
+        <v>29.81841826439091</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -16226,6 +17376,12 @@
       <c r="Z192" t="n">
         <v>0.9588749775535288</v>
       </c>
+      <c r="AA192" t="n">
+        <v>0.4737166465419557</v>
+      </c>
+      <c r="AB192" t="n">
+        <v>26.52718815370193</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -16308,6 +17464,12 @@
       <c r="Z193" t="n">
         <v>0.9759596467326986</v>
       </c>
+      <c r="AA193" t="n">
+        <v>0.3984196587343813</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>31.54053857251288</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -16390,6 +17552,12 @@
       <c r="Z194" t="n">
         <v>0.9809958877736813</v>
       </c>
+      <c r="AA194" t="n">
+        <v>0.4190063684113172</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>29.99088214817634</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -16472,6 +17640,12 @@
       <c r="Z195" t="n">
         <v>0.9649448223486629</v>
       </c>
+      <c r="AA195" t="n">
+        <v>0.5152771949895031</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>24.38759319557149</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -16554,6 +17728,12 @@
       <c r="Z196" t="n">
         <v>0.9815954878783577</v>
       </c>
+      <c r="AA196" t="n">
+        <v>0.345465540149</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>36.37517828533424</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -16636,6 +17816,12 @@
       <c r="Z197" t="n">
         <v>0.960973657311836</v>
       </c>
+      <c r="AA197" t="n">
+        <v>0.3899337479119057</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>32.22693773404343</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -16718,6 +17904,12 @@
       <c r="Z198" t="n">
         <v>0.9569767398957227</v>
       </c>
+      <c r="AA198" t="n">
+        <v>0.3811677933056019</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>32.96808081653442</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -16800,6 +17992,12 @@
       <c r="Z199" t="n">
         <v>0.9599418061321049</v>
       </c>
+      <c r="AA199" t="n">
+        <v>0.4012627808220539</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>31.31706007872163</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -16882,6 +18080,12 @@
       <c r="Z200" t="n">
         <v>0.967480358166768</v>
       </c>
+      <c r="AA200" t="n">
+        <v>0.4274233826361725</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>29.40028815656959</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -16964,6 +18168,12 @@
       <c r="Z201" t="n">
         <v>0.9765960319374367</v>
       </c>
+      <c r="AA201" t="n">
+        <v>0.3556168569274828</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>35.33682492706384</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -17046,6 +18256,12 @@
       <c r="Z202" t="n">
         <v>0.9733515063236772</v>
       </c>
+      <c r="AA202" t="n">
+        <v>0.4497875429697369</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>27.93845852508343</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -17128,6 +18344,12 @@
       <c r="Z203" t="n">
         <v>0.9830296470235733</v>
       </c>
+      <c r="AA203" t="n">
+        <v>0.4161088141111835</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>30.19972225582672</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -17210,6 +18432,12 @@
       <c r="Z204" t="n">
         <v>0.9843291707462162</v>
       </c>
+      <c r="AA204" t="n">
+        <v>0.3841852495361165</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>32.70914390787362</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -17292,6 +18520,12 @@
       <c r="Z205" t="n">
         <v>0.9793277360193473</v>
       </c>
+      <c r="AA205" t="n">
+        <v>0.382600905974293</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>32.84459189232424</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -17374,6 +18608,12 @@
       <c r="Z206" t="n">
         <v>0.9772211971038416</v>
       </c>
+      <c r="AA206" t="n">
+        <v>0.3293013077484134</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>38.16070668009583</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -17456,6 +18696,12 @@
       <c r="Z207" t="n">
         <v>0.9880789816415451</v>
       </c>
+      <c r="AA207" t="n">
+        <v>0.3860744856137671</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>32.54908335727396</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -17538,6 +18784,12 @@
       <c r="Z208" t="n">
         <v>0.984134277743525</v>
       </c>
+      <c r="AA208" t="n">
+        <v>0.4261130168558599</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>29.49069875189934</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -17620,6 +18872,12 @@
       <c r="Z209" t="n">
         <v>0.9664607216938292</v>
       </c>
+      <c r="AA209" t="n">
+        <v>0.3147188332363194</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>39.92888028065103</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -17702,6 +18960,12 @@
       <c r="Z210" t="n">
         <v>0.9605270307503396</v>
       </c>
+      <c r="AA210" t="n">
+        <v>0.3601981971563647</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>34.88737787575327</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -17784,6 +19048,12 @@
       <c r="Z211" t="n">
         <v>0.9739077265941501</v>
       </c>
+      <c r="AA211" t="n">
+        <v>0.4434594404971305</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>28.33713631233539</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -17866,6 +19136,12 @@
       <c r="Z212" t="n">
         <v>0.9485971634626984</v>
       </c>
+      <c r="AA212" t="n">
+        <v>0.3873011576631575</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>32.44599290686438</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -17948,6 +19224,12 @@
       <c r="Z213" t="n">
         <v>0.9522158945642466</v>
       </c>
+      <c r="AA213" t="n">
+        <v>0.3947734701405917</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>31.8318518462851</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -18030,6 +19312,12 @@
       <c r="Z214" t="n">
         <v>0.9517321702391932</v>
       </c>
+      <c r="AA214" t="n">
+        <v>0.3101446474447001</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>40.51777361916201</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -18112,6 +19400,12 @@
       <c r="Z215" t="n">
         <v>0.9654610017924651</v>
       </c>
+      <c r="AA215" t="n">
+        <v>0.2544453702000783</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>49.38730307601135</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -18194,6 +19488,12 @@
       <c r="Z216" t="n">
         <v>0.9681452027942871</v>
       </c>
+      <c r="AA216" t="n">
+        <v>0.3552635018715402</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>35.37197192551191</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -18276,6 +19576,12 @@
       <c r="Z217" t="n">
         <v>0.9650575941266648</v>
       </c>
+      <c r="AA217" t="n">
+        <v>0.4114217516475734</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>30.54376819902222</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -18358,6 +19664,12 @@
       <c r="Z218" t="n">
         <v>0.9884971444151265</v>
       </c>
+      <c r="AA218" t="n">
+        <v>0.4191277797556807</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>29.98219450327153</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -18440,6 +19752,12 @@
       <c r="Z219" t="n">
         <v>0.9698188379626309</v>
       </c>
+      <c r="AA219" t="n">
+        <v>0.4646026234617235</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>27.04756706005655</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -18522,6 +19840,12 @@
       <c r="Z220" t="n">
         <v>0.9862949226313514</v>
       </c>
+      <c r="AA220" t="n">
+        <v>0.4188265921329945</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>30.00375537370091</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -18604,6 +19928,12 @@
       <c r="Z221" t="n">
         <v>0.9852606125376622</v>
       </c>
+      <c r="AA221" t="n">
+        <v>0.2434801216162265</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>51.611484875822</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -18686,6 +20016,12 @@
       <c r="Z222" t="n">
         <v>0.9639269711106764</v>
       </c>
+      <c r="AA222" t="n">
+        <v>0.4108218082309519</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>30.58837277522212</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -18768,6 +20104,12 @@
       <c r="Z223" t="n">
         <v>0.9665608406899847</v>
       </c>
+      <c r="AA223" t="n">
+        <v>0.3772909832975523</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>33.30684053069098</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -18850,6 +20192,12 @@
       <c r="Z224" t="n">
         <v>0.9904555934726271</v>
       </c>
+      <c r="AA224" t="n">
+        <v>0.4299360973903596</v>
+      </c>
+      <c r="AB224" t="n">
+        <v>29.22846137050354</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -18932,6 +20280,12 @@
       <c r="Z225" t="n">
         <v>0.9735027608899143</v>
       </c>
+      <c r="AA225" t="n">
+        <v>0.391415767130016</v>
+      </c>
+      <c r="AB225" t="n">
+        <v>32.10491673981294</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -19014,6 +20368,12 @@
       <c r="Z226" t="n">
         <v>0.9857824704939954</v>
       </c>
+      <c r="AA226" t="n">
+        <v>0.3232981613003315</v>
+      </c>
+      <c r="AB226" t="n">
+        <v>38.86929193725139</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -19096,6 +20456,12 @@
       <c r="Z227" t="n">
         <v>0.9618451474890756</v>
       </c>
+      <c r="AA227" t="n">
+        <v>0.263037359207452</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>47.77409054068377</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -19178,6 +20544,12 @@
       <c r="Z228" t="n">
         <v>0.9746577732445943</v>
       </c>
+      <c r="AA228" t="n">
+        <v>0.3404602993583477</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>36.90994409052252</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -19260,6 +20632,12 @@
       <c r="Z229" t="n">
         <v>0.9849353960014943</v>
       </c>
+      <c r="AA229" t="n">
+        <v>0.3470817987715939</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>36.20578969809014</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -19342,6 +20720,12 @@
       <c r="Z230" t="n">
         <v>0.9748328001811494</v>
       </c>
+      <c r="AA230" t="n">
+        <v>0.3370518684456082</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>37.28319523138045</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -19424,6 +20808,12 @@
       <c r="Z231" t="n">
         <v>0.9691195893231748</v>
       </c>
+      <c r="AA231" t="n">
+        <v>0.3411729611840005</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>36.83284446325719</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -19506,6 +20896,12 @@
       <c r="Z232" t="n">
         <v>0.9224935614883417</v>
       </c>
+      <c r="AA232" t="n">
+        <v>0.1553191551005401</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>80.90676649782698</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -19588,6 +20984,12 @@
       <c r="Z233" t="n">
         <v>0.6950854995017368</v>
       </c>
+      <c r="AA233" t="n">
+        <v>0.4267827392173639</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>29.44442091871719</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -19670,6 +21072,12 @@
       <c r="Z234" t="n">
         <v>0.9687522481859409</v>
       </c>
+      <c r="AA234" t="n">
+        <v>0.5201001624206013</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>24.16144335712942</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -19752,6 +21160,12 @@
       <c r="Z235" t="n">
         <v>0.89969960838425</v>
       </c>
+      <c r="AA235" t="n">
+        <v>0.4092459534271038</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>30.70615728543186</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -19834,6 +21248,12 @@
       <c r="Z236" t="n">
         <v>0.9503609226615838</v>
       </c>
+      <c r="AA236" t="n">
+        <v>0.4953647918594792</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>25.36791233625641</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -19916,6 +21336,12 @@
       <c r="Z237" t="n">
         <v>0.9503401615126107</v>
       </c>
+      <c r="AA237" t="n">
+        <v>0.5525977946550596</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>22.74053703417927</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -19998,6 +21424,12 @@
       <c r="Z238" t="n">
         <v>0.9169953078261279</v>
       </c>
+      <c r="AA238" t="n">
+        <v>0.4810768859195205</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>26.12133524216211</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -20080,6 +21512,12 @@
       <c r="Z239" t="n">
         <v>0.9610164140671774</v>
       </c>
+      <c r="AA239" t="n">
+        <v>0.4525875259370147</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>27.76561415019644</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -20162,6 +21600,12 @@
       <c r="Z240" t="n">
         <v>0.9854424169192445</v>
       </c>
+      <c r="AA240" t="n">
+        <v>0.3617632616810232</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>34.73644768671755</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -20244,6 +21688,12 @@
       <c r="Z241" t="n">
         <v>0.9611975352234209</v>
       </c>
+      <c r="AA241" t="n">
+        <v>0.4779406516701967</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>26.29274277139875</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -20326,6 +21776,12 @@
       <c r="Z242" t="n">
         <v>0.9240859831316002</v>
       </c>
+      <c r="AA242" t="n">
+        <v>0.5098219347096505</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>24.64854836329446</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -20408,6 +21864,12 @@
       <c r="Z243" t="n">
         <v>0.9340775103553197</v>
       </c>
+      <c r="AA243" t="n">
+        <v>0.4145829331365347</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>30.31087295197626</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -20490,6 +21952,12 @@
       <c r="Z244" t="n">
         <v>0.9252936044030898</v>
       </c>
+      <c r="AA244" t="n">
+        <v>0.5364051251069188</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>23.42701444520014</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -20572,6 +22040,12 @@
       <c r="Z245" t="n">
         <v>0.9223773333640565</v>
       </c>
+      <c r="AA245" t="n">
+        <v>0.3939207293977918</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>31.90075991575785</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -20654,6 +22128,12 @@
       <c r="Z246" t="n">
         <v>0.9437524565684545</v>
       </c>
+      <c r="AA246" t="n">
+        <v>0.4577750728032013</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>27.45097180020872</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -20736,6 +22216,12 @@
       <c r="Z247" t="n">
         <v>0.9295335137327024</v>
       </c>
+      <c r="AA247" t="n">
+        <v>0.5118834213074254</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>24.54928229998702</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -20818,6 +22304,12 @@
       <c r="Z248" t="n">
         <v>0.9255997981313829</v>
       </c>
+      <c r="AA248" t="n">
+        <v>0.508121577124546</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>24.7310312730117</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -20900,6 +22392,12 @@
       <c r="Z249" t="n">
         <v>0.9484114753657477</v>
       </c>
+      <c r="AA249" t="n">
+        <v>0.4277699021041426</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>29.37647214670056</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -20981,6 +22479,12 @@
       </c>
       <c r="Z250" t="n">
         <v>0.9297640734893278</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>0.5204976027727886</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>24.14299421825529</v>
       </c>
     </row>
   </sheetData>
